--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="646">
   <si>
     <t>ID Bloco</t>
   </si>
@@ -1110,6 +1110,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tanto na rede privada quanto no SUS, as equipes de saúde são, por lei, obrigadas a denunciar à polícia casos de violência contra a mulher. A depender da condição, uma visita de rotina pode te ajudar a romper o ciclo de violência. </t>
+  </si>
+  <si>
+    <t>R98</t>
+  </si>
+  <si>
+    <t>XXXX</t>
   </si>
   <si>
     <t>ID Resposta</t>
@@ -13182,10 +13188,18 @@
       <c r="Z98" s="6"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="6"/>
+      <c r="A99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -38361,19 +38375,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -38402,13 +38416,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>3</v>
@@ -38441,13 +38455,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>3</v>
@@ -38480,13 +38494,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>3</v>
@@ -38519,13 +38533,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>5</v>
@@ -38558,13 +38572,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E6" s="64" t="s">
         <v>11</v>
@@ -38597,13 +38611,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E7" s="68" t="s">
         <v>5</v>
@@ -38636,13 +38650,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E8" s="64" t="s">
         <v>11</v>
@@ -38675,13 +38689,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>11</v>
@@ -38714,19 +38728,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E10" s="68" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
@@ -38755,13 +38769,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E11" s="68" t="s">
         <v>5</v>
@@ -38794,13 +38808,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E12" s="68" t="s">
         <v>5</v>
@@ -38833,13 +38847,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E13" s="68" t="s">
         <v>5</v>
@@ -38875,10 +38889,10 @@
         <v>168</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E14" s="68" t="s">
         <v>5</v>
@@ -38914,10 +38928,10 @@
         <v>177</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E15" s="68" t="s">
         <v>5</v>
@@ -38953,10 +38967,10 @@
         <v>177</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E16" s="68" t="s">
         <v>5</v>
@@ -38992,10 +39006,10 @@
         <v>177</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>5</v>
@@ -39028,13 +39042,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>5</v>
@@ -39067,13 +39081,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>5</v>
@@ -39109,10 +39123,10 @@
         <v>185</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E20" s="68" t="s">
         <v>5</v>
@@ -39145,13 +39159,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E21" s="68" t="s">
         <v>5</v>
@@ -39187,10 +39201,10 @@
         <v>185</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E22" s="68" t="s">
         <v>5</v>
@@ -39226,10 +39240,10 @@
         <v>186</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E23" s="68" t="s">
         <v>5</v>
@@ -39262,13 +39276,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E24" s="68" t="s">
         <v>5</v>
@@ -39301,13 +39315,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E25" s="68" t="s">
         <v>5</v>
@@ -39340,13 +39354,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E26" s="68" t="s">
         <v>5</v>
@@ -39379,13 +39393,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E27" s="68" t="s">
         <v>5</v>
@@ -39421,10 +39435,10 @@
         <v>187</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E28" s="80" t="s">
         <v>13</v>
@@ -39460,10 +39474,10 @@
         <v>187</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E29" s="84" t="s">
         <v>13</v>
@@ -39496,13 +39510,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C30" s="85" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E30" s="84" t="s">
         <v>13</v>
@@ -39535,13 +39549,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E31" s="84" t="s">
         <v>13</v>
@@ -39577,10 +39591,10 @@
         <v>189</v>
       </c>
       <c r="C32" s="85" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D32" s="86" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E32" s="84" t="s">
         <v>13</v>
@@ -39616,10 +39630,10 @@
         <v>189</v>
       </c>
       <c r="C33" s="85" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E33" s="84" t="s">
         <v>13</v>
@@ -39655,10 +39669,10 @@
         <v>189</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E34" s="84" t="s">
         <v>13</v>
@@ -39694,10 +39708,10 @@
         <v>189</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D35" s="86" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>13</v>
@@ -39733,10 +39747,10 @@
         <v>189</v>
       </c>
       <c r="C36" s="85" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E36" s="84" t="s">
         <v>13</v>
@@ -39772,10 +39786,10 @@
         <v>189</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D37" s="86" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>13</v>
@@ -39811,10 +39825,10 @@
         <v>191</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E38" s="84" t="s">
         <v>13</v>
@@ -39850,10 +39864,10 @@
         <v>191</v>
       </c>
       <c r="C39" s="85" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E39" s="84" t="s">
         <v>13</v>
@@ -39889,10 +39903,10 @@
         <v>191</v>
       </c>
       <c r="C40" s="85" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E40" s="84" t="s">
         <v>13</v>
@@ -39928,10 +39942,10 @@
         <v>191</v>
       </c>
       <c r="C41" s="85" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D41" s="86" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E41" s="84" t="s">
         <v>13</v>
@@ -39967,10 +39981,10 @@
         <v>193</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D42" s="86" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E42" s="84" t="s">
         <v>13</v>
@@ -40006,10 +40020,10 @@
         <v>193</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E43" s="84" t="s">
         <v>13</v>
@@ -40045,10 +40059,10 @@
         <v>193</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E44" s="84" t="s">
         <v>13</v>
@@ -40084,10 +40098,10 @@
         <v>195</v>
       </c>
       <c r="C45" s="85" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E45" s="84" t="s">
         <v>13</v>
@@ -40123,10 +40137,10 @@
         <v>195</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E46" s="84" t="s">
         <v>13</v>
@@ -40162,10 +40176,10 @@
         <v>195</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D47" s="86" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E47" s="84" t="s">
         <v>13</v>
@@ -40201,10 +40215,10 @@
         <v>199</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E48" s="89" t="s">
         <v>13</v>
@@ -40240,10 +40254,10 @@
         <v>203</v>
       </c>
       <c r="C49" s="93" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E49" s="92" t="s">
         <v>7</v>
@@ -40279,10 +40293,10 @@
         <v>203</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E50" s="92" t="s">
         <v>7</v>
@@ -40318,10 +40332,10 @@
         <v>203</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E51" s="92" t="s">
         <v>7</v>
@@ -40357,10 +40371,10 @@
         <v>203</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E52" s="92" t="s">
         <v>7</v>
@@ -40393,13 +40407,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="92" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E53" s="92" t="s">
         <v>7</v>
@@ -40435,10 +40449,10 @@
         <v>209</v>
       </c>
       <c r="C54" s="92" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E54" s="92" t="s">
         <v>7</v>
@@ -40471,13 +40485,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="92" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C55" s="92" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E55" s="92" t="s">
         <v>7</v>
@@ -40513,10 +40527,10 @@
         <v>209</v>
       </c>
       <c r="C56" s="92" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E56" s="92" t="s">
         <v>7</v>
@@ -40549,13 +40563,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="94" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C57" s="94" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D57" s="95" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E57" s="94" t="s">
         <v>11</v>
@@ -40588,13 +40602,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="94" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C58" s="94" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D58" s="95" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E58" s="94" t="s">
         <v>11</v>
@@ -40627,13 +40641,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="94" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C59" s="94" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D59" s="95" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E59" s="94" t="s">
         <v>11</v>
@@ -40669,10 +40683,10 @@
         <v>209</v>
       </c>
       <c r="C60" s="92" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E60" s="92" t="s">
         <v>7</v>
@@ -40705,13 +40719,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C61" s="92" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E61" s="92" t="s">
         <v>7</v>
@@ -40744,13 +40758,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="96" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C62" s="96" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D62" s="97" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E62" s="96" t="s">
         <v>7</v>
@@ -40783,13 +40797,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="92" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C63" s="92" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D63" s="98" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E63" s="92" t="s">
         <v>7</v>
@@ -40825,10 +40839,10 @@
         <v>221</v>
       </c>
       <c r="C64" s="92" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E64" s="92" t="s">
         <v>7</v>
@@ -40864,10 +40878,10 @@
         <v>221</v>
       </c>
       <c r="C65" s="92" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E65" s="92" t="s">
         <v>7</v>
@@ -40903,10 +40917,10 @@
         <v>221</v>
       </c>
       <c r="C66" s="92" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E66" s="92" t="s">
         <v>7</v>
@@ -40942,10 +40956,10 @@
         <v>225</v>
       </c>
       <c r="C67" s="92" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D67" s="98" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E67" s="92" t="s">
         <v>7</v>
@@ -40981,10 +40995,10 @@
         <v>225</v>
       </c>
       <c r="C68" s="99" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E68" s="92" t="s">
         <v>7</v>
@@ -41020,10 +41034,10 @@
         <v>225</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E69" s="92" t="s">
         <v>7</v>
@@ -41059,10 +41073,10 @@
         <v>225</v>
       </c>
       <c r="C70" s="99" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E70" s="92" t="s">
         <v>7</v>
@@ -41095,13 +41109,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="92" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C71" s="99" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E71" s="92" t="s">
         <v>7</v>
@@ -41134,13 +41148,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="92" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C72" s="99" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E72" s="92" t="s">
         <v>7</v>
@@ -41173,13 +41187,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="92" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E73" s="92" t="s">
         <v>7</v>
@@ -41212,13 +41226,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="92" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C74" s="92" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E74" s="92" t="s">
         <v>7</v>
@@ -41254,10 +41268,10 @@
         <v>241</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E75" s="92" t="s">
         <v>7</v>
@@ -41293,10 +41307,10 @@
         <v>241</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E76" s="92" t="s">
         <v>7</v>
@@ -41329,13 +41343,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="92" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E77" s="92" t="s">
         <v>7</v>
@@ -41368,13 +41382,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="92" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E78" s="92" t="s">
         <v>7</v>
@@ -41407,13 +41421,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="96" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C79" s="96" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D79" s="97" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E79" s="96" t="s">
         <v>7</v>
@@ -41449,10 +41463,10 @@
         <v>264</v>
       </c>
       <c r="C80" s="100" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D80" s="101" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E80" s="100" t="s">
         <v>9</v>
@@ -41485,13 +41499,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="100" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C81" s="100" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D81" s="101" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E81" s="100" t="s">
         <v>9</v>
@@ -41524,13 +41538,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="100" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C82" s="100" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D82" s="101" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E82" s="100" t="s">
         <v>9</v>
@@ -41563,13 +41577,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="100" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C83" s="100" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D83" s="101" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E83" s="100" t="s">
         <v>9</v>
@@ -41605,10 +41619,10 @@
         <v>264</v>
       </c>
       <c r="C84" s="100" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D84" s="101" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E84" s="100" t="s">
         <v>9</v>
@@ -41644,10 +41658,10 @@
         <v>264</v>
       </c>
       <c r="C85" s="100" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D85" s="101" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E85" s="100" t="s">
         <v>9</v>
@@ -41680,13 +41694,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C86" s="100" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D86" s="101" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E86" s="100" t="s">
         <v>9</v>
@@ -41722,10 +41736,10 @@
         <v>264</v>
       </c>
       <c r="C87" s="100" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D87" s="101" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E87" s="100" t="s">
         <v>9</v>
@@ -41761,10 +41775,10 @@
         <v>264</v>
       </c>
       <c r="C88" s="100" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D88" s="102" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E88" s="100" t="s">
         <v>9</v>
@@ -41800,10 +41814,10 @@
         <v>266</v>
       </c>
       <c r="C89" s="100" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D89" s="101" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E89" s="100" t="s">
         <v>9</v>
@@ -41839,10 +41853,10 @@
         <v>268</v>
       </c>
       <c r="C90" s="100" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D90" s="101" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E90" s="100" t="s">
         <v>9</v>
@@ -41878,10 +41892,10 @@
         <v>268</v>
       </c>
       <c r="C91" s="100" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D91" s="101" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E91" s="100" t="s">
         <v>9</v>
@@ -41914,13 +41928,13 @@
         <v>9</v>
       </c>
       <c r="B92" s="103" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C92" s="103" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D92" s="104" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E92" s="103" t="s">
         <v>9</v>
@@ -41956,10 +41970,10 @@
         <v>276</v>
       </c>
       <c r="C93" s="103" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D93" s="104" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E93" s="103" t="s">
         <v>9</v>
@@ -41992,13 +42006,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C94" s="103" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E94" s="103" t="s">
         <v>9</v>
@@ -42034,10 +42048,10 @@
         <v>276</v>
       </c>
       <c r="C95" s="103" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D95" s="104" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E95" s="103" t="s">
         <v>9</v>
@@ -42070,13 +42084,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C96" s="103" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D96" s="104" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>9</v>
@@ -42109,13 +42123,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="103" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C97" s="103" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D97" s="104" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E97" s="103" t="s">
         <v>9</v>
@@ -42151,10 +42165,10 @@
         <v>282</v>
       </c>
       <c r="C98" s="103" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D98" s="104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E98" s="103" t="s">
         <v>9</v>
@@ -42190,10 +42204,10 @@
         <v>288</v>
       </c>
       <c r="C99" s="103" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D99" s="104" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E99" s="103" t="s">
         <v>9</v>
@@ -42229,10 +42243,10 @@
         <v>290</v>
       </c>
       <c r="C100" s="103" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D100" s="104" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E100" s="103" t="s">
         <v>9</v>
@@ -42265,13 +42279,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="103" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C101" s="103" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D101" s="104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E101" s="103" t="s">
         <v>9</v>
@@ -42307,10 +42321,10 @@
         <v>290</v>
       </c>
       <c r="C102" s="103" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D102" s="104" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E102" s="103" t="s">
         <v>9</v>
@@ -42343,13 +42357,13 @@
         <v>9</v>
       </c>
       <c r="B103" s="105" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C103" s="105" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D103" s="106" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E103" s="105" t="s">
         <v>9</v>
@@ -42385,10 +42399,10 @@
         <v>300</v>
       </c>
       <c r="C104" s="64" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D104" s="107" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E104" s="64" t="s">
         <v>11</v>
@@ -42424,10 +42438,10 @@
         <v>304</v>
       </c>
       <c r="C105" s="64" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D105" s="107" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E105" s="64" t="s">
         <v>11</v>
@@ -42463,10 +42477,10 @@
         <v>304</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D106" s="107" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E106" s="64" t="s">
         <v>11</v>
@@ -42502,10 +42516,10 @@
         <v>304</v>
       </c>
       <c r="C107" s="64" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D107" s="107" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E107" s="64" t="s">
         <v>11</v>
@@ -42541,10 +42555,10 @@
         <v>304</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D108" s="107" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E108" s="64" t="s">
         <v>11</v>
@@ -42580,10 +42594,10 @@
         <v>304</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D109" s="107" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E109" s="64" t="s">
         <v>11</v>
@@ -42619,10 +42633,10 @@
         <v>304</v>
       </c>
       <c r="C110" s="64" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D110" s="107" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E110" s="64" t="s">
         <v>11</v>
@@ -42658,10 +42672,10 @@
         <v>304</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D111" s="107" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E111" s="64" t="s">
         <v>11</v>
@@ -42694,13 +42708,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D112" s="107" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E112" s="64" t="s">
         <v>11</v>
@@ -42733,13 +42747,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C113" s="64" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D113" s="107" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E113" s="64" t="s">
         <v>11</v>
@@ -42772,13 +42786,13 @@
         <v>11</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D114" s="107" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E114" s="64" t="s">
         <v>11</v>
@@ -42811,13 +42825,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D115" s="107" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E115" s="64" t="s">
         <v>11</v>
@@ -42850,13 +42864,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D116" s="107" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E116" s="64" t="s">
         <v>11</v>
@@ -42889,13 +42903,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="64" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D117" s="107" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E117" s="64" t="s">
         <v>11</v>
@@ -42928,13 +42942,13 @@
         <v>11</v>
       </c>
       <c r="B118" s="64" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D118" s="107" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E118" s="64" t="s">
         <v>11</v>
@@ -42967,13 +42981,13 @@
         <v>11</v>
       </c>
       <c r="B119" s="64" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D119" s="107" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E119" s="64" t="s">
         <v>11</v>
@@ -43006,13 +43020,13 @@
         <v>11</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D120" s="107" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E120" s="64" t="s">
         <v>11</v>
@@ -43045,13 +43059,13 @@
         <v>11</v>
       </c>
       <c r="B121" s="64" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D121" s="107" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E121" s="64" t="s">
         <v>11</v>
@@ -43084,13 +43098,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="64" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D122" s="107" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E122" s="64" t="s">
         <v>11</v>
@@ -43123,13 +43137,13 @@
         <v>11</v>
       </c>
       <c r="B123" s="64" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C123" s="64" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D123" s="107" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E123" s="64" t="s">
         <v>11</v>
@@ -43162,13 +43176,13 @@
         <v>11</v>
       </c>
       <c r="B124" s="64" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C124" s="64" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D124" s="107" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E124" s="64" t="s">
         <v>11</v>
@@ -43201,13 +43215,13 @@
         <v>11</v>
       </c>
       <c r="B125" s="64" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D125" s="107" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E125" s="64" t="s">
         <v>11</v>
@@ -43240,13 +43254,13 @@
         <v>11</v>
       </c>
       <c r="B126" s="64" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D126" s="107" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E126" s="64" t="s">
         <v>11</v>
@@ -43282,10 +43296,10 @@
         <v>332</v>
       </c>
       <c r="C127" s="64" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D127" s="107" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E127" s="64" t="s">
         <v>11</v>
@@ -43321,10 +43335,10 @@
         <v>332</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D128" s="107" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E128" s="64" t="s">
         <v>11</v>
@@ -43360,10 +43374,10 @@
         <v>336</v>
       </c>
       <c r="C129" s="64" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D129" s="107" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E129" s="64" t="s">
         <v>11</v>
@@ -43399,10 +43413,10 @@
         <v>336</v>
       </c>
       <c r="C130" s="64" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D130" s="107" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E130" s="64" t="s">
         <v>11</v>
@@ -43438,10 +43452,10 @@
         <v>336</v>
       </c>
       <c r="C131" s="64" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D131" s="107" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E131" s="64" t="s">
         <v>11</v>
@@ -43477,10 +43491,10 @@
         <v>336</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D132" s="107" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E132" s="64" t="s">
         <v>11</v>
@@ -43516,10 +43530,10 @@
         <v>336</v>
       </c>
       <c r="C133" s="64" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D133" s="107" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E133" s="64" t="s">
         <v>11</v>
@@ -68487,26 +68501,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="643">
   <si>
     <t>ID Bloco</t>
   </si>
@@ -102,11 +102,11 @@
     <t>SC</t>
   </si>
   <si>
-    <t>“Passos para fuga”: p0a
+    <t xml:space="preserve">“Passos para fuga”: p0a
 “Crianças, adolescentes e dependentes”, p0b
 “Bens, trabalho e renda”: p0c
 “Segurança pessoal”: p0d
-"Transporte": p0e</t>
+</t>
   </si>
   <si>
     <t>* transporte não pode ser uma das opções de resposta, pq só foi feito o caso especial pro PS, naõ tem o "vai pro transporte só se não foi respondido"</t>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t>p0d</t>
-  </si>
-  <si>
-    <t>p0e</t>
-  </si>
-  <si>
-    <t>**</t>
   </si>
   <si>
     <t>P1intro</t>
@@ -187,12 +181,12 @@
     <t>Qual deles você quer conhecer?</t>
   </si>
   <si>
+    <t>MC</t>
+  </si>
+  <si>
     <t>“Auxílio-aluguel”: R2, P4
 “Casa abrigo”:  R3, P4
 “Casa de acolhimento”: R4, P4</t>
-  </si>
-  <si>
-    <t>TODO: MC</t>
   </si>
   <si>
     <t>P4</t>
@@ -275,9 +269,6 @@
   </si>
   <si>
     <t>P8ac</t>
-  </si>
-  <si>
-    <t>** vai duplicar aqui se começou pelo transporte **</t>
   </si>
   <si>
     <t>P9intro</t>
@@ -877,7 +868,7 @@
     <t>R57</t>
   </si>
   <si>
-    <t>É dever de todos, especialmente das pessoas mais próximas, denunciar o caso à polícia, ao Ministério Público,  à Justiça ou outro órgão de proteção. Lembre-se que a denúncia pode ser feita de forma anônima.</t>
+    <t>É dever de todos, especialmente das pessoas mais próximas, denunciar o caso à polícia, ao Ministério Público, à Justiça ou outro órgão de proteção. Lembre-se que a denúncia pode ser feita de forma anônima.</t>
   </si>
   <si>
     <t>R58</t>
@@ -1115,7 +1106,7 @@
     <t>R98</t>
   </si>
   <si>
-    <t>XXXX</t>
+    <t xml:space="preserve">Estamos finalizando o bloco "Segurança Pessoal". Obrigada por ter respondido até aqui. Você é forte e corajosa!  O PenhaS quer te ajudar a romper com o ciclo de violência. Certifique-se de todos os itens que aparecerão no seu plano. Eles são personalizados a partir de suas respostas, por isso é tão importante que você siga respondendo a todos os blocos. </t>
   </si>
   <si>
     <t>ID Resposta</t>
@@ -3442,26 +3433,14 @@
       <c r="Z7" s="12"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>17.0</v>
-      </c>
+      <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -3486,13 +3465,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="5">
         <v>1.0</v>
@@ -3523,16 +3502,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="12"/>
       <c r="H10" s="12"/>
@@ -3560,16 +3539,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -3598,20 +3577,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -3638,19 +3615,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -3678,15 +3655,15 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -3714,16 +3691,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3752,16 +3729,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3790,16 +3767,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3828,19 +3805,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3868,16 +3845,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="F19" s="13"/>
       <c r="G19" s="12"/>
       <c r="H19" s="14">
         <v>17.0</v>
@@ -3906,13 +3881,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5">
         <v>1.0</v>
@@ -3944,16 +3919,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3982,13 +3957,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="5">
         <v>1.0</v>
@@ -4020,16 +3995,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -4058,16 +4033,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -4096,16 +4071,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -4134,19 +4109,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4174,16 +4149,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -4212,16 +4187,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -4250,16 +4225,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -4288,16 +4263,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -4326,16 +4301,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -4364,13 +4339,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="5">
         <v>1.0</v>
@@ -4402,16 +4377,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -4440,16 +4415,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -4478,13 +4453,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="5">
         <v>1.0</v>
@@ -4516,16 +4491,16 @@
         <v>11</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -4554,16 +4529,16 @@
         <v>11</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -4592,16 +4567,16 @@
         <v>11</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -4630,16 +4605,16 @@
         <v>11</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -4668,16 +4643,16 @@
         <v>11</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4706,16 +4681,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -4744,16 +4719,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -4810,10 +4785,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>15</v>
@@ -9665,16 +9640,16 @@
   <sheetData>
     <row r="1" ht="42.0" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -9704,13 +9679,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -9740,13 +9715,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -9776,13 +9751,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -9812,13 +9787,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -9848,13 +9823,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -9884,13 +9859,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -9920,13 +9895,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -9956,13 +9931,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -9992,13 +9967,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -10028,13 +10003,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -10064,13 +10039,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -10100,13 +10075,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -10136,13 +10111,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -10172,13 +10147,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -10208,13 +10183,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -10244,13 +10219,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -10280,13 +10255,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -10316,13 +10291,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -10352,10 +10327,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="12"/>
@@ -10386,10 +10361,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="12"/>
@@ -10420,13 +10395,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -10456,13 +10431,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -10492,13 +10467,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -10528,13 +10503,13 @@
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -10564,13 +10539,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -10600,13 +10575,13 @@
         <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -10636,13 +10611,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -10672,13 +10647,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -10708,13 +10683,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -10744,13 +10719,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -10780,13 +10755,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -10816,13 +10791,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -10852,13 +10827,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -10888,13 +10863,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -10924,13 +10899,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -10960,13 +10935,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -10996,13 +10971,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -11032,13 +11007,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -11068,13 +11043,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -11104,13 +11079,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -11140,13 +11115,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -11176,13 +11151,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -11212,13 +11187,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -11248,13 +11223,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -11284,13 +11259,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -11320,13 +11295,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -11356,13 +11331,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -11392,13 +11367,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -11428,13 +11403,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -11464,13 +11439,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -11500,13 +11475,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -11536,13 +11511,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -11572,13 +11547,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -11608,13 +11583,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -11644,13 +11619,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -11680,13 +11655,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -11716,13 +11691,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -11752,13 +11727,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -11788,13 +11763,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -11824,13 +11799,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -11860,13 +11835,13 @@
         <v>9</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -11896,13 +11871,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -11932,13 +11907,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -11968,13 +11943,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -12004,13 +11979,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -12040,13 +12015,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -12076,13 +12051,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -12112,13 +12087,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -12148,13 +12123,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -12184,13 +12159,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -12220,13 +12195,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -12256,13 +12231,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -12292,13 +12267,13 @@
         <v>9</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -12328,13 +12303,13 @@
         <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -12364,13 +12339,13 @@
         <v>9</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -12400,13 +12375,13 @@
         <v>9</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -12436,13 +12411,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -12472,13 +12447,13 @@
         <v>11</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -12508,13 +12483,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -12544,13 +12519,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -12580,13 +12555,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -12616,13 +12591,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -12652,13 +12627,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -12688,13 +12663,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -12724,13 +12699,13 @@
         <v>11</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -12760,13 +12735,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -12796,13 +12771,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -12832,13 +12807,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -12868,13 +12843,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -12904,13 +12879,13 @@
         <v>11</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -12940,13 +12915,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -12976,13 +12951,13 @@
         <v>11</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -13012,13 +12987,13 @@
         <v>11</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -13048,13 +13023,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -13084,13 +13059,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -13120,13 +13095,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -13156,13 +13131,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -13192,13 +13167,13 @@
         <v>11</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -38375,19 +38350,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -38416,13 +38391,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>3</v>
@@ -38455,13 +38430,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>348</v>
-      </c>
       <c r="D3" s="51" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>3</v>
@@ -38494,13 +38469,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E4" s="57" t="s">
         <v>3</v>
@@ -38533,13 +38508,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>5</v>
@@ -38572,13 +38547,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E6" s="64" t="s">
         <v>11</v>
@@ -38611,13 +38586,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E7" s="68" t="s">
         <v>5</v>
@@ -38650,13 +38625,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E8" s="64" t="s">
         <v>11</v>
@@ -38689,13 +38664,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>11</v>
@@ -38728,19 +38703,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E10" s="68" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G10" s="70"/>
       <c r="H10" s="70"/>
@@ -38769,13 +38744,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E11" s="68" t="s">
         <v>5</v>
@@ -38808,13 +38783,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E12" s="68" t="s">
         <v>5</v>
@@ -38847,13 +38822,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E13" s="68" t="s">
         <v>5</v>
@@ -38886,13 +38861,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E14" s="68" t="s">
         <v>5</v>
@@ -38925,13 +38900,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E15" s="68" t="s">
         <v>5</v>
@@ -38964,13 +38939,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E16" s="68" t="s">
         <v>5</v>
@@ -39003,13 +38978,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E17" s="68" t="s">
         <v>5</v>
@@ -39042,13 +39017,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E18" s="68" t="s">
         <v>5</v>
@@ -39081,13 +39056,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E19" s="68" t="s">
         <v>5</v>
@@ -39120,13 +39095,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E20" s="68" t="s">
         <v>5</v>
@@ -39159,13 +39134,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E21" s="68" t="s">
         <v>5</v>
@@ -39198,13 +39173,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E22" s="68" t="s">
         <v>5</v>
@@ -39237,13 +39212,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E23" s="68" t="s">
         <v>5</v>
@@ -39276,13 +39251,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E24" s="68" t="s">
         <v>5</v>
@@ -39315,13 +39290,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E25" s="68" t="s">
         <v>5</v>
@@ -39354,13 +39329,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E26" s="68" t="s">
         <v>5</v>
@@ -39393,13 +39368,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="C27" s="77" t="s">
-        <v>411</v>
-      </c>
       <c r="D27" s="78" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E27" s="68" t="s">
         <v>5</v>
@@ -39432,13 +39407,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E28" s="80" t="s">
         <v>13</v>
@@ -39471,13 +39446,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E29" s="84" t="s">
         <v>13</v>
@@ -39510,13 +39485,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C30" s="85" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E30" s="84" t="s">
         <v>13</v>
@@ -39549,13 +39524,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E31" s="84" t="s">
         <v>13</v>
@@ -39588,13 +39563,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C32" s="85" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D32" s="86" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E32" s="84" t="s">
         <v>13</v>
@@ -39627,13 +39602,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C33" s="85" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E33" s="84" t="s">
         <v>13</v>
@@ -39666,13 +39641,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C34" s="85" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E34" s="84" t="s">
         <v>13</v>
@@ -39705,13 +39680,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D35" s="86" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>13</v>
@@ -39744,13 +39719,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C36" s="85" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E36" s="84" t="s">
         <v>13</v>
@@ -39783,13 +39758,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D37" s="86" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>13</v>
@@ -39822,13 +39797,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E38" s="84" t="s">
         <v>13</v>
@@ -39861,13 +39836,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" s="85" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E39" s="84" t="s">
         <v>13</v>
@@ -39900,13 +39875,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" s="85" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E40" s="84" t="s">
         <v>13</v>
@@ -39939,13 +39914,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" s="85" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D41" s="86" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E41" s="84" t="s">
         <v>13</v>
@@ -39978,13 +39953,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C42" s="85" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D42" s="86" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E42" s="84" t="s">
         <v>13</v>
@@ -40017,13 +39992,13 @@
         <v>13</v>
       </c>
       <c r="B43" s="84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E43" s="84" t="s">
         <v>13</v>
@@ -40056,13 +40031,13 @@
         <v>13</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E44" s="84" t="s">
         <v>13</v>
@@ -40095,13 +40070,13 @@
         <v>13</v>
       </c>
       <c r="B45" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C45" s="85" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E45" s="84" t="s">
         <v>13</v>
@@ -40134,13 +40109,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E46" s="84" t="s">
         <v>13</v>
@@ -40173,13 +40148,13 @@
         <v>13</v>
       </c>
       <c r="B47" s="84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C47" s="85" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D47" s="86" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E47" s="84" t="s">
         <v>13</v>
@@ -40212,13 +40187,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C48" s="90" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E48" s="89" t="s">
         <v>13</v>
@@ -40251,13 +40226,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="92" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C49" s="93" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E49" s="92" t="s">
         <v>7</v>
@@ -40290,13 +40265,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="92" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50" s="93" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E50" s="92" t="s">
         <v>7</v>
@@ -40329,13 +40304,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="92" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E51" s="92" t="s">
         <v>7</v>
@@ -40368,13 +40343,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E52" s="92" t="s">
         <v>7</v>
@@ -40407,13 +40382,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="92" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E53" s="92" t="s">
         <v>7</v>
@@ -40446,13 +40421,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C54" s="92" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E54" s="92" t="s">
         <v>7</v>
@@ -40485,13 +40460,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="92" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C55" s="92" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E55" s="92" t="s">
         <v>7</v>
@@ -40524,13 +40499,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C56" s="92" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E56" s="92" t="s">
         <v>7</v>
@@ -40563,13 +40538,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="94" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C57" s="94" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D57" s="95" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E57" s="94" t="s">
         <v>11</v>
@@ -40602,13 +40577,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="94" t="s">
+        <v>471</v>
+      </c>
+      <c r="C58" s="94" t="s">
         <v>474</v>
       </c>
-      <c r="C58" s="94" t="s">
-        <v>477</v>
-      </c>
       <c r="D58" s="95" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E58" s="94" t="s">
         <v>11</v>
@@ -40641,13 +40616,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="94" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C59" s="94" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D59" s="95" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E59" s="94" t="s">
         <v>11</v>
@@ -40680,13 +40655,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C60" s="92" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E60" s="92" t="s">
         <v>7</v>
@@ -40719,13 +40694,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C61" s="92" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E61" s="92" t="s">
         <v>7</v>
@@ -40758,13 +40733,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="96" t="s">
+        <v>480</v>
+      </c>
+      <c r="C62" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="C62" s="96" t="s">
-        <v>486</v>
-      </c>
       <c r="D62" s="97" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E62" s="96" t="s">
         <v>7</v>
@@ -40797,13 +40772,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="92" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C63" s="92" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D63" s="98" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E63" s="92" t="s">
         <v>7</v>
@@ -40836,13 +40811,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C64" s="92" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E64" s="92" t="s">
         <v>7</v>
@@ -40875,13 +40850,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C65" s="92" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E65" s="92" t="s">
         <v>7</v>
@@ -40914,13 +40889,13 @@
         <v>7</v>
       </c>
       <c r="B66" s="92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C66" s="92" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E66" s="92" t="s">
         <v>7</v>
@@ -40953,13 +40928,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C67" s="92" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D67" s="98" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E67" s="92" t="s">
         <v>7</v>
@@ -40992,13 +40967,13 @@
         <v>7</v>
       </c>
       <c r="B68" s="92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C68" s="99" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E68" s="92" t="s">
         <v>7</v>
@@ -41031,13 +41006,13 @@
         <v>7</v>
       </c>
       <c r="B69" s="92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C69" s="92" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E69" s="92" t="s">
         <v>7</v>
@@ -41070,13 +41045,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="92" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C70" s="99" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E70" s="92" t="s">
         <v>7</v>
@@ -41109,13 +41084,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="92" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C71" s="99" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E71" s="92" t="s">
         <v>7</v>
@@ -41148,13 +41123,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="92" t="s">
+        <v>502</v>
+      </c>
+      <c r="C72" s="99" t="s">
         <v>505</v>
       </c>
-      <c r="C72" s="99" t="s">
-        <v>508</v>
-      </c>
       <c r="D72" s="14" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E72" s="92" t="s">
         <v>7</v>
@@ -41187,13 +41162,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="92" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E73" s="92" t="s">
         <v>7</v>
@@ -41226,13 +41201,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="92" t="s">
+        <v>507</v>
+      </c>
+      <c r="C74" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="C74" s="92" t="s">
-        <v>513</v>
-      </c>
       <c r="D74" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E74" s="92" t="s">
         <v>7</v>
@@ -41265,13 +41240,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="92" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C75" s="92" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E75" s="92" t="s">
         <v>7</v>
@@ -41304,13 +41279,13 @@
         <v>7</v>
       </c>
       <c r="B76" s="92" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C76" s="92" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E76" s="92" t="s">
         <v>7</v>
@@ -41343,13 +41318,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="92" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E77" s="92" t="s">
         <v>7</v>
@@ -41382,13 +41357,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="92" t="s">
+        <v>516</v>
+      </c>
+      <c r="C78" s="92" t="s">
         <v>519</v>
       </c>
-      <c r="C78" s="92" t="s">
-        <v>522</v>
-      </c>
       <c r="D78" s="14" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E78" s="92" t="s">
         <v>7</v>
@@ -41421,13 +41396,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="96" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C79" s="96" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D79" s="97" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E79" s="96" t="s">
         <v>7</v>
@@ -41460,13 +41435,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C80" s="100" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D80" s="101" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E80" s="100" t="s">
         <v>9</v>
@@ -41499,13 +41474,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="100" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C81" s="100" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D81" s="101" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E81" s="100" t="s">
         <v>9</v>
@@ -41538,13 +41513,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="100" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C82" s="100" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D82" s="101" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E82" s="100" t="s">
         <v>9</v>
@@ -41577,13 +41552,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="100" t="s">
+        <v>528</v>
+      </c>
+      <c r="C83" s="100" t="s">
         <v>531</v>
       </c>
-      <c r="C83" s="100" t="s">
-        <v>534</v>
-      </c>
       <c r="D83" s="101" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E83" s="100" t="s">
         <v>9</v>
@@ -41616,13 +41591,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C84" s="100" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D84" s="101" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E84" s="100" t="s">
         <v>9</v>
@@ -41655,13 +41630,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C85" s="100" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D85" s="101" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E85" s="100" t="s">
         <v>9</v>
@@ -41694,13 +41669,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="100" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C86" s="100" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D86" s="101" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E86" s="100" t="s">
         <v>9</v>
@@ -41733,13 +41708,13 @@
         <v>9</v>
       </c>
       <c r="B87" s="100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C87" s="100" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D87" s="101" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E87" s="100" t="s">
         <v>9</v>
@@ -41772,13 +41747,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C88" s="100" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D88" s="102" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E88" s="100" t="s">
         <v>9</v>
@@ -41811,13 +41786,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C89" s="100" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D89" s="101" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E89" s="100" t="s">
         <v>9</v>
@@ -41850,13 +41825,13 @@
         <v>9</v>
       </c>
       <c r="B90" s="100" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C90" s="100" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D90" s="101" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E90" s="100" t="s">
         <v>9</v>
@@ -41889,13 +41864,13 @@
         <v>9</v>
       </c>
       <c r="B91" s="100" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C91" s="100" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D91" s="101" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E91" s="100" t="s">
         <v>9</v>
@@ -41928,13 +41903,13 @@
         <v>9</v>
       </c>
       <c r="B92" s="103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C92" s="103" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D92" s="104" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E92" s="103" t="s">
         <v>9</v>
@@ -41967,13 +41942,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C93" s="103" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D93" s="104" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E93" s="103" t="s">
         <v>9</v>
@@ -42006,13 +41981,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="103" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C94" s="103" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D94" s="104" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E94" s="103" t="s">
         <v>9</v>
@@ -42045,13 +42020,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C95" s="103" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D95" s="104" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E95" s="103" t="s">
         <v>9</v>
@@ -42084,13 +42059,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C96" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D96" s="104" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E96" s="103" t="s">
         <v>9</v>
@@ -42123,13 +42098,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C97" s="103" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D97" s="104" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E97" s="103" t="s">
         <v>9</v>
@@ -42162,13 +42137,13 @@
         <v>9</v>
       </c>
       <c r="B98" s="103" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C98" s="103" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D98" s="104" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E98" s="103" t="s">
         <v>9</v>
@@ -42201,13 +42176,13 @@
         <v>9</v>
       </c>
       <c r="B99" s="103" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C99" s="103" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D99" s="104" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E99" s="103" t="s">
         <v>9</v>
@@ -42240,13 +42215,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="103" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C100" s="103" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D100" s="104" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E100" s="103" t="s">
         <v>9</v>
@@ -42279,13 +42254,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="103" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C101" s="103" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D101" s="104" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E101" s="103" t="s">
         <v>9</v>
@@ -42318,13 +42293,13 @@
         <v>9</v>
       </c>
       <c r="B102" s="103" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C102" s="103" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D102" s="104" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E102" s="103" t="s">
         <v>9</v>
@@ -42357,13 +42332,13 @@
         <v>9</v>
       </c>
       <c r="B103" s="105" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C103" s="105" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D103" s="106" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E103" s="105" t="s">
         <v>9</v>
@@ -42396,13 +42371,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C104" s="64" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D104" s="107" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E104" s="64" t="s">
         <v>11</v>
@@ -42435,13 +42410,13 @@
         <v>11</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C105" s="64" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D105" s="107" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E105" s="64" t="s">
         <v>11</v>
@@ -42474,13 +42449,13 @@
         <v>11</v>
       </c>
       <c r="B106" s="64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D106" s="107" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E106" s="64" t="s">
         <v>11</v>
@@ -42513,13 +42488,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C107" s="64" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D107" s="107" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E107" s="64" t="s">
         <v>11</v>
@@ -42552,13 +42527,13 @@
         <v>11</v>
       </c>
       <c r="B108" s="64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D108" s="107" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E108" s="64" t="s">
         <v>11</v>
@@ -42591,13 +42566,13 @@
         <v>11</v>
       </c>
       <c r="B109" s="64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D109" s="107" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E109" s="64" t="s">
         <v>11</v>
@@ -42630,13 +42605,13 @@
         <v>11</v>
       </c>
       <c r="B110" s="64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C110" s="64" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D110" s="107" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E110" s="64" t="s">
         <v>11</v>
@@ -42669,13 +42644,13 @@
         <v>11</v>
       </c>
       <c r="B111" s="64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D111" s="107" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E111" s="64" t="s">
         <v>11</v>
@@ -42708,13 +42683,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="64" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D112" s="107" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E112" s="64" t="s">
         <v>11</v>
@@ -42747,13 +42722,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="C113" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C113" s="64" t="s">
-        <v>597</v>
-      </c>
       <c r="D113" s="107" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E113" s="64" t="s">
         <v>11</v>
@@ -42786,13 +42761,13 @@
         <v>11</v>
       </c>
       <c r="B114" s="64" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D114" s="107" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E114" s="64" t="s">
         <v>11</v>
@@ -42825,13 +42800,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="64" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D115" s="107" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E115" s="64" t="s">
         <v>11</v>
@@ -42864,13 +42839,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="64" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D116" s="107" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E116" s="64" t="s">
         <v>11</v>
@@ -42903,13 +42878,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="64" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D117" s="107" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E117" s="64" t="s">
         <v>11</v>
@@ -42942,13 +42917,13 @@
         <v>11</v>
       </c>
       <c r="B118" s="64" t="s">
+        <v>602</v>
+      </c>
+      <c r="C118" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="C118" s="64" t="s">
-        <v>608</v>
-      </c>
       <c r="D118" s="107" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E118" s="64" t="s">
         <v>11</v>
@@ -42981,13 +42956,13 @@
         <v>11</v>
       </c>
       <c r="B119" s="64" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D119" s="107" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E119" s="64" t="s">
         <v>11</v>
@@ -43020,13 +42995,13 @@
         <v>11</v>
       </c>
       <c r="B120" s="64" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D120" s="107" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E120" s="64" t="s">
         <v>11</v>
@@ -43059,13 +43034,13 @@
         <v>11</v>
       </c>
       <c r="B121" s="64" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D121" s="107" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E121" s="64" t="s">
         <v>11</v>
@@ -43098,13 +43073,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="64" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D122" s="107" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E122" s="64" t="s">
         <v>11</v>
@@ -43137,13 +43112,13 @@
         <v>11</v>
       </c>
       <c r="B123" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="C123" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="C123" s="64" t="s">
-        <v>619</v>
-      </c>
       <c r="D123" s="107" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E123" s="64" t="s">
         <v>11</v>
@@ -43176,13 +43151,13 @@
         <v>11</v>
       </c>
       <c r="B124" s="64" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C124" s="64" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D124" s="107" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E124" s="64" t="s">
         <v>11</v>
@@ -43215,13 +43190,13 @@
         <v>11</v>
       </c>
       <c r="B125" s="64" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D125" s="107" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E125" s="64" t="s">
         <v>11</v>
@@ -43254,13 +43229,13 @@
         <v>11</v>
       </c>
       <c r="B126" s="64" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D126" s="107" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E126" s="64" t="s">
         <v>11</v>
@@ -43293,13 +43268,13 @@
         <v>11</v>
       </c>
       <c r="B127" s="64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C127" s="64" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D127" s="107" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E127" s="64" t="s">
         <v>11</v>
@@ -43332,13 +43307,13 @@
         <v>11</v>
       </c>
       <c r="B128" s="64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D128" s="107" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E128" s="64" t="s">
         <v>11</v>
@@ -43371,13 +43346,13 @@
         <v>11</v>
       </c>
       <c r="B129" s="64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C129" s="64" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D129" s="107" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E129" s="64" t="s">
         <v>11</v>
@@ -43410,13 +43385,13 @@
         <v>11</v>
       </c>
       <c r="B130" s="64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C130" s="64" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D130" s="107" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E130" s="64" t="s">
         <v>11</v>
@@ -43449,13 +43424,13 @@
         <v>11</v>
       </c>
       <c r="B131" s="64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C131" s="64" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D131" s="107" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E131" s="64" t="s">
         <v>11</v>
@@ -43488,13 +43463,13 @@
         <v>11</v>
       </c>
       <c r="B132" s="64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C132" s="64" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D132" s="107" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E132" s="64" t="s">
         <v>11</v>
@@ -43527,13 +43502,13 @@
         <v>11</v>
       </c>
       <c r="B133" s="64" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C133" s="64" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D133" s="107" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E133" s="64" t="s">
         <v>11</v>
@@ -68501,26 +68476,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -3925,7 +3925,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>77</v>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -195,8 +195,8 @@
     <t>Quer saber se em seu estado/cidade há alguns desses serviços?</t>
   </si>
   <si>
-    <t>S: R5, R6, R7, P4c, T1
-N: R6, R7, P4c</t>
+    <t>S: R5, R6, R7, P4ac, T1
+N: R6, R7, P4ac</t>
   </si>
   <si>
     <t>aqui usa a tag T1 quando responde S</t>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="679">
   <si>
     <t>ID Bloco</t>
   </si>
@@ -111,10 +111,20 @@
     <t>REVISÃO</t>
   </si>
   <si>
-    <t>O Manual de Fuga vai ajudá-la a criar um plano de saída do ambiente doméstico. Por isso, dedique um tempo e responda ao máximo de perguntas para poder personalizar uma lista de ações essenciais para o seu planejamento, que será mostrada somente depois que você concluir a interação.</t>
+    <t>P0</t>
   </si>
   <si>
-    <t>P0</t>
+    <t>Deseja limpar as tarefas do manual de fuga?</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>{"tags": ["SIM_LIMPA_MF"], 
+"relevance": "cliente.ja_completou_mf=='1' "}</t>
+  </si>
+  <si>
+    <t>O Manual de Fuga vai ajudá-la a criar um plano de saída do ambiente doméstico. Por isso, dedique um tempo e responda ao máximo de perguntas para poder personalizar uma lista de ações essenciais para o seu planejamento, que será mostrada somente depois que você concluir a interação.</t>
   </si>
   <si>
     <t xml:space="preserve">Separamos o conteúdo em quatro blocos. Por qual você quer começar? @@ -332,7 +342,7 @@
 Neste bloco, vamos tratar sobre crianças, adolescentes e outras pessoas que dependam de seus cuidados e vivam no mesmo ambiente doméstico que você. O foco aqui é garantir que essas pessoas estejam protegidas e possam lhe ajudar quando possível, entendendo que é importante que as crianças e os adolescentes sejam orientados a pedir ajuda, mas não devem se sentir responsáveis por garantir sua proteção para que isso não gere impactos negativos na saúde mental deles futuramente. Então, as perguntas e orientações que faremos aqui serão no intuito de criar um ambiente seguro e garantir direitos para todos vocês antes, durante e depois do plano de fuga.</t>
   </si>
   <si>
-    <t>Neste bloco, vamos tratar sobre crianças, adolescentes e outras pessoas que dependam de seus cuidados e vivam no mesmo ambiente doméstico que você. O foco aqui é garantir que essas pessoas estejam protegidas e possam lhe ajudar quando possível, entendendo que  crianças e adolescentes não devem se sentir responsáveis por garantir sua proteção. Desse modo, as perguntas e orientações desse bloco são importantes para criar um ambiente seguro e garantir direitos para seus dependentes, tanto durante, quanto depois da fuga.</t>
+    <t>Neste bloco, vamos tratar sobre crianças, adolescentes e outras pessoas que dependam de seus cuidados.O foco é garantir que essas pessoas estejam protegidas e possam lhe ajudar quando possível. Crianças e adolescentes não devem se sentir responsáveis por garantir sua proteção. As perguntas e orientações desse bloco são importantes para criar um ambiente seguro e garantir direitos.</t>
   </si>
   <si>
     <t>P10</t>
@@ -805,6 +815,9 @@
   </si>
   <si>
     <t>Ao sair de casa, denuncie o agressor e faça um boletim de ocorrência frisando o risco que a criança e/ou o adolescente está correndo e que ele também é vítima de violência e está em risco. Infelizmente, nosso sistema judiciário ainda é muito machista e misógino, então é preciso que você se resguarde ao máximo.</t>
+  </si>
+  <si>
+    <t>Ao sair de casa, denuncie o agressor e faça um boletim de ocorrência frisando o risco que a criança e/ou o adolescente está correndo. Infelizmente, nosso sistema judiciário ainda é muito machista e misógino, então é preciso que você se resguarde ao máximo.</t>
   </si>
   <si>
     <t>R36</t>
@@ -2203,6 +2216,12 @@
   <si>
     <t>Talvez pretende incluir uma criança e/ou adolescente no plano de fuga</t>
   </si>
+  <si>
+    <t>SIM_LIMPA_MF</t>
+  </si>
+  <si>
+    <t>Caso responda sim, vai limpar as tarefas</t>
+  </si>
 </sst>
 </file>
 
@@ -3371,9 +3390,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="J2" s="14"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3396,86 +3413,86 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="17" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="G4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="J4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16">
-        <v>13.0</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -3486,15 +3503,17 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="20"/>
@@ -3520,19 +3539,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="20"/>
@@ -3558,19 +3577,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="20"/>
@@ -3592,14 +3611,24 @@
       <c r="Z7" s="13"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="16">
+        <v>16.0</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="20"/>
       <c r="K8" s="13"/>
@@ -3620,27 +3649,16 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -3662,22 +3680,24 @@
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
+      <c r="E10" s="5">
+        <v>1.0</v>
       </c>
       <c r="F10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -3700,19 +3720,18 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="20"/>
@@ -3738,18 +3757,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -3776,20 +3795,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -3812,18 +3829,22 @@
       <c r="Z13" s="13"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="6"/>
       <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="13"/>
@@ -3848,22 +3869,20 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -3896,10 +3915,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -3928,16 +3947,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -3972,94 +3991,92 @@
         <v>73</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16">
-        <v>17.0</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="H20" s="16">
+        <v>17.0</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -4081,23 +4098,25 @@
       <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>82</v>
+        <v>46</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.0</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -4119,48 +4138,52 @@
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D23" s="5" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
@@ -4187,27 +4210,21 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1.0</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="18" t="s">
-        <v>89</v>
-      </c>
+      <c r="J24" s="23"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -4236,16 +4253,18 @@
         <v>91</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>92</v>
+        <v>46</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.0</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -4274,9 +4293,9 @@
         <v>94</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F26" s="6"/>
@@ -4305,16 +4324,16 @@
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>98</v>
       </c>
       <c r="F27" s="6"/>
@@ -4343,21 +4362,19 @@
       <c r="A28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>102</v>
-      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -4383,19 +4400,21 @@
       <c r="A29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -4428,7 +4447,7 @@
         <v>107</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>108</v>
@@ -4466,7 +4485,7 @@
         <v>110</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>111</v>
@@ -4504,7 +4523,7 @@
         <v>113</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>114</v>
@@ -4542,7 +4561,7 @@
         <v>116</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>117</v>
@@ -4571,27 +4590,25 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1.0</v>
+        <v>54</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="J34" s="23"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -4620,16 +4637,18 @@
         <v>122</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>123</v>
+        <v>46</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1.0</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -4658,7 +4677,7 @@
         <v>125</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>126</v>
@@ -4687,7 +4706,7 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>127</v>
@@ -4696,10 +4715,10 @@
         <v>128</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1.0</v>
+        <v>32</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -4728,16 +4747,16 @@
         <v>11</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>131</v>
+        <v>46</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -4772,7 +4791,7 @@
         <v>133</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>134</v>
@@ -4810,7 +4829,7 @@
         <v>136</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>137</v>
@@ -4848,7 +4867,7 @@
         <v>139</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>140</v>
@@ -4886,7 +4905,7 @@
         <v>142</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>143</v>
@@ -4924,7 +4943,7 @@
         <v>145</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>146</v>
@@ -4962,7 +4981,7 @@
         <v>148</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>149</v>
@@ -4990,11 +5009,21 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -5018,18 +5047,10 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -5054,10 +5075,18 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -9841,10 +9870,41 @@
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
     </row>
+    <row r="218" ht="12.75" customHeight="1">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="23"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
+      <c r="U218" s="6"/>
+      <c r="V218" s="6"/>
+      <c r="W218" s="6"/>
+      <c r="X218" s="6"/>
+      <c r="Y218" s="6"/>
+      <c r="Z218" s="6"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2 D4:D47">
       <formula1>"AC,SC,MC,SNT,SN,PQ,PS,BF,ET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3">
+      <formula1>"AC,SC,MC,SNT,SN,PQ,PS,BF,ET,RF"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -9878,16 +9938,16 @@
   <sheetData>
     <row r="1" ht="42.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -9919,13 +9979,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="13"/>
@@ -9955,13 +10015,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="13"/>
@@ -9991,16 +10051,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -10029,16 +10089,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -10067,13 +10127,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="13"/>
@@ -10103,16 +10163,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -10141,13 +10201,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="13"/>
@@ -10177,13 +10237,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="13"/>
@@ -10213,13 +10273,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="13"/>
@@ -10249,13 +10309,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="13"/>
@@ -10285,16 +10345,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -10323,13 +10383,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="13"/>
@@ -10359,13 +10419,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="13"/>
@@ -10395,16 +10455,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -10433,13 +10493,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="13"/>
@@ -10469,13 +10529,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="13"/>
@@ -10505,16 +10565,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -10543,13 +10603,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="13"/>
@@ -10579,10 +10639,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="20"/>
@@ -10613,10 +10673,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="20"/>
@@ -10647,13 +10707,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="13"/>
@@ -10683,13 +10743,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="13"/>
@@ -10719,13 +10779,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="13"/>
@@ -10755,13 +10815,13 @@
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="13"/>
@@ -10791,13 +10851,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="13"/>
@@ -10827,13 +10887,13 @@
         <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="13"/>
@@ -10863,13 +10923,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="6"/>
@@ -10899,16 +10959,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -10937,13 +10997,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="6"/>
@@ -10973,13 +11033,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="6"/>
@@ -11009,13 +11069,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="6"/>
@@ -11045,13 +11105,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="6"/>
@@ -11081,13 +11141,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="6"/>
@@ -11117,15 +11177,17 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>232</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -11153,13 +11215,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="6"/>
@@ -11189,13 +11251,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="6"/>
@@ -11225,16 +11287,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11263,16 +11325,16 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -11301,13 +11363,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="6"/>
@@ -11337,16 +11399,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -11375,16 +11437,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11413,16 +11475,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -11451,16 +11513,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -11489,13 +11551,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="6"/>
@@ -11525,13 +11587,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="6"/>
@@ -11561,16 +11623,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -11599,16 +11661,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -11637,13 +11699,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="6"/>
@@ -11673,16 +11735,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -11711,16 +11773,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -11749,16 +11811,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -11787,13 +11849,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="6"/>
@@ -11823,16 +11885,16 @@
         <v>7</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -11861,16 +11923,16 @@
         <v>7</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -11899,13 +11961,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="6"/>
@@ -11935,13 +11997,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="6"/>
@@ -11971,13 +12033,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="6"/>
@@ -12007,13 +12069,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="6"/>
@@ -12043,13 +12105,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="6"/>
@@ -12079,13 +12141,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="6"/>
@@ -12115,16 +12177,16 @@
         <v>9</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -12153,13 +12215,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="6"/>
@@ -12189,13 +12251,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="6"/>
@@ -12225,13 +12287,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="6"/>
@@ -12261,13 +12323,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="6"/>
@@ -12297,13 +12359,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="6"/>
@@ -12333,13 +12395,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="6"/>
@@ -12369,13 +12431,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="6"/>
@@ -12405,13 +12467,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="6"/>
@@ -12441,13 +12503,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="6"/>
@@ -12477,13 +12539,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D72" s="46" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="6"/>
@@ -12513,13 +12575,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="6"/>
@@ -12549,16 +12611,16 @@
         <v>9</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D74" s="46" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -12587,13 +12649,13 @@
         <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="6"/>
@@ -12623,16 +12685,16 @@
         <v>9</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D76" s="48" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -12661,13 +12723,13 @@
         <v>11</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="6"/>
@@ -12697,13 +12759,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="6"/>
@@ -12733,13 +12795,13 @@
         <v>11</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="6"/>
@@ -12769,13 +12831,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="6"/>
@@ -12805,13 +12867,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="6"/>
@@ -12841,13 +12903,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="6"/>
@@ -12877,13 +12939,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="6"/>
@@ -12913,13 +12975,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="6"/>
@@ -12949,13 +13011,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="6"/>
@@ -12985,16 +13047,16 @@
         <v>11</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -13023,13 +13085,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="6"/>
@@ -13059,13 +13121,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="6"/>
@@ -13095,13 +13157,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="6"/>
@@ -13131,13 +13193,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="6"/>
@@ -13167,13 +13229,13 @@
         <v>11</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="6"/>
@@ -13203,13 +13265,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="6"/>
@@ -13239,13 +13301,13 @@
         <v>11</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="6"/>
@@ -13275,13 +13337,13 @@
         <v>11</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="6"/>
@@ -13311,13 +13373,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="6"/>
@@ -13347,13 +13409,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="6"/>
@@ -13383,13 +13445,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="6"/>
@@ -13419,16 +13481,16 @@
         <v>11</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -38606,19 +38668,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>25</v>
@@ -38649,13 +38711,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E2" s="54" t="s">
         <v>3</v>
@@ -38688,13 +38750,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>3</v>
@@ -38727,13 +38789,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>3</v>
@@ -38766,13 +38828,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E5" s="66" t="s">
         <v>5</v>
@@ -38805,13 +38867,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C6" s="71" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E6" s="70" t="s">
         <v>11</v>
@@ -38844,13 +38906,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>5</v>
@@ -38883,13 +38945,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E8" s="70" t="s">
         <v>11</v>
@@ -38922,13 +38984,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E9" s="70" t="s">
         <v>11</v>
@@ -38961,19 +39023,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="76"/>
@@ -39002,13 +39064,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E11" s="74" t="s">
         <v>5</v>
@@ -39041,13 +39103,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E12" s="74" t="s">
         <v>5</v>
@@ -39080,13 +39142,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>5</v>
@@ -39119,13 +39181,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E14" s="74" t="s">
         <v>5</v>
@@ -39158,13 +39220,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>5</v>
@@ -39197,13 +39259,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>5</v>
@@ -39236,13 +39298,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E17" s="74" t="s">
         <v>5</v>
@@ -39275,13 +39337,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E18" s="74" t="s">
         <v>5</v>
@@ -39314,13 +39376,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E19" s="74" t="s">
         <v>5</v>
@@ -39353,13 +39415,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C20" s="75" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E20" s="74" t="s">
         <v>5</v>
@@ -39392,13 +39454,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E21" s="74" t="s">
         <v>5</v>
@@ -39431,13 +39493,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E22" s="74" t="s">
         <v>5</v>
@@ -39470,13 +39532,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E23" s="74" t="s">
         <v>5</v>
@@ -39509,13 +39571,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E24" s="74" t="s">
         <v>5</v>
@@ -39548,13 +39610,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E25" s="74" t="s">
         <v>5</v>
@@ -39587,13 +39649,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D26" s="76" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E26" s="74" t="s">
         <v>5</v>
@@ -39626,13 +39688,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C27" s="83" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E27" s="74" t="s">
         <v>5</v>
@@ -39665,13 +39727,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>13</v>
@@ -39704,13 +39766,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D29" s="92" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E29" s="90" t="s">
         <v>13</v>
@@ -39743,13 +39805,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="90" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D30" s="92" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E30" s="90" t="s">
         <v>13</v>
@@ -39782,13 +39844,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="90" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D31" s="92" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E31" s="90" t="s">
         <v>13</v>
@@ -39821,13 +39883,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C32" s="91" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D32" s="92" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E32" s="90" t="s">
         <v>13</v>
@@ -39860,13 +39922,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D33" s="92" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E33" s="90" t="s">
         <v>13</v>
@@ -39899,13 +39961,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D34" s="92" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E34" s="90" t="s">
         <v>13</v>
@@ -39938,13 +40000,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D35" s="92" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E35" s="90" t="s">
         <v>13</v>
@@ -39977,13 +40039,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E36" s="90" t="s">
         <v>13</v>
@@ -40016,13 +40078,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E37" s="90" t="s">
         <v>13</v>
@@ -40055,13 +40117,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D38" s="92" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E38" s="90" t="s">
         <v>13</v>
@@ -40094,13 +40156,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C39" s="91" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D39" s="92" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E39" s="90" t="s">
         <v>13</v>
@@ -40133,13 +40195,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D40" s="92" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E40" s="90" t="s">
         <v>13</v>
@@ -40172,13 +40234,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C41" s="91" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D41" s="92" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E41" s="90" t="s">
         <v>13</v>
@@ -40211,13 +40273,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D42" s="92" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E42" s="90" t="s">
         <v>13</v>
@@ -40250,13 +40312,13 @@
         <v>13</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C43" s="91" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E43" s="90" t="s">
         <v>13</v>
@@ -40289,13 +40351,13 @@
         <v>13</v>
       </c>
       <c r="B44" s="90" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C44" s="91" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E44" s="90" t="s">
         <v>13</v>
@@ -40328,13 +40390,13 @@
         <v>13</v>
       </c>
       <c r="B45" s="90" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C45" s="91" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D45" s="92" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E45" s="90" t="s">
         <v>13</v>
@@ -40367,13 +40429,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="90" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C46" s="91" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D46" s="92" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E46" s="90" t="s">
         <v>13</v>
@@ -40406,13 +40468,13 @@
         <v>13</v>
       </c>
       <c r="B47" s="90" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C47" s="91" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D47" s="92" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E47" s="90" t="s">
         <v>13</v>
@@ -40445,13 +40507,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="95" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E48" s="95" t="s">
         <v>13</v>
@@ -40484,13 +40546,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C49" s="99" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E49" s="98" t="s">
         <v>7</v>
@@ -40523,13 +40585,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C50" s="99" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E50" s="98" t="s">
         <v>7</v>
@@ -40562,13 +40624,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="98" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C51" s="98" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E51" s="98" t="s">
         <v>7</v>
@@ -40601,13 +40663,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E52" s="98" t="s">
         <v>7</v>
@@ -40640,13 +40702,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="98" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E53" s="98" t="s">
         <v>7</v>
@@ -40679,13 +40741,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C54" s="98" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E54" s="98" t="s">
         <v>7</v>
@@ -40718,13 +40780,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E55" s="98" t="s">
         <v>7</v>
@@ -40757,13 +40819,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C56" s="98" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E56" s="98" t="s">
         <v>7</v>
@@ -40796,13 +40858,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C57" s="100" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D57" s="101" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E57" s="100" t="s">
         <v>11</v>
@@ -40835,13 +40897,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C58" s="100" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D58" s="101" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E58" s="100" t="s">
         <v>11</v>
@@ -40874,13 +40936,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C59" s="100" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D59" s="101" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E59" s="100" t="s">
         <v>11</v>
@@ -40913,13 +40975,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C60" s="98" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E60" s="98" t="s">
         <v>7</v>
@@ -40952,13 +41014,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="98" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E61" s="98" t="s">
         <v>7</v>
@@ -40991,13 +41053,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="102" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C62" s="102" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E62" s="102" t="s">
         <v>7</v>
@@ -41030,13 +41092,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D63" s="104" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E63" s="98" t="s">
         <v>7</v>
@@ -41069,13 +41131,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E64" s="98" t="s">
         <v>7</v>
@@ -41108,13 +41170,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E65" s="98" t="s">
         <v>7</v>
@@ -41147,13 +41209,13 @@
         <v>7</v>
       </c>
       <c r="B66" s="98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E66" s="98" t="s">
         <v>7</v>
@@ -41186,13 +41248,13 @@
         <v>7</v>
       </c>
       <c r="B67" s="98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C67" s="98" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D67" s="104" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E67" s="98" t="s">
         <v>7</v>
@@ -41225,13 +41287,13 @@
         <v>7</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C68" s="105" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E68" s="98" t="s">
         <v>7</v>
@@ -41264,13 +41326,13 @@
         <v>7</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E69" s="98" t="s">
         <v>7</v>
@@ -41303,13 +41365,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C70" s="105" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E70" s="98" t="s">
         <v>7</v>
@@ -41342,13 +41404,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="98" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C71" s="105" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E71" s="98" t="s">
         <v>7</v>
@@ -41381,13 +41443,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="98" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C72" s="105" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E72" s="98" t="s">
         <v>7</v>
@@ -41420,13 +41482,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="98" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C73" s="105" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E73" s="98" t="s">
         <v>7</v>
@@ -41459,13 +41521,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="98" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C74" s="98" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E74" s="98" t="s">
         <v>7</v>
@@ -41498,13 +41560,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="98" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C75" s="98" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E75" s="98" t="s">
         <v>7</v>
@@ -41537,13 +41599,13 @@
         <v>7</v>
       </c>
       <c r="B76" s="98" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C76" s="98" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E76" s="98" t="s">
         <v>7</v>
@@ -41576,13 +41638,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="98" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C77" s="98" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E77" s="98" t="s">
         <v>7</v>
@@ -41615,13 +41677,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="98" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C78" s="98" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E78" s="98" t="s">
         <v>7</v>
@@ -41654,13 +41716,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="102" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C79" s="102" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D79" s="103" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E79" s="102" t="s">
         <v>7</v>
@@ -41693,13 +41755,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="106" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C80" s="106" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D80" s="107" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E80" s="106" t="s">
         <v>9</v>
@@ -41732,13 +41794,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="106" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C81" s="106" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D81" s="107" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E81" s="106" t="s">
         <v>9</v>
@@ -41771,13 +41833,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="106" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C82" s="106" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D82" s="107" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E82" s="106" t="s">
         <v>9</v>
@@ -41810,13 +41872,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="106" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C83" s="106" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D83" s="107" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E83" s="106" t="s">
         <v>9</v>
@@ -41849,13 +41911,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="106" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C84" s="106" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D84" s="107" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E84" s="106" t="s">
         <v>9</v>
@@ -41888,13 +41950,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="106" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C85" s="106" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D85" s="107" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E85" s="106" t="s">
         <v>9</v>
@@ -41927,13 +41989,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="106" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C86" s="106" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D86" s="107" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E86" s="106" t="s">
         <v>9</v>
@@ -41966,13 +42028,13 @@
         <v>9</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C87" s="106" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D87" s="107" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E87" s="106" t="s">
         <v>9</v>
@@ -42005,13 +42067,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="106" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C88" s="106" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D88" s="108" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E88" s="106" t="s">
         <v>9</v>
@@ -42044,13 +42106,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="106" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C89" s="106" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D89" s="107" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E89" s="106" t="s">
         <v>9</v>
@@ -42083,13 +42145,13 @@
         <v>9</v>
       </c>
       <c r="B90" s="106" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D90" s="107" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E90" s="106" t="s">
         <v>9</v>
@@ -42122,13 +42184,13 @@
         <v>9</v>
       </c>
       <c r="B91" s="106" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C91" s="106" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D91" s="107" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E91" s="106" t="s">
         <v>9</v>
@@ -42161,13 +42223,13 @@
         <v>9</v>
       </c>
       <c r="B92" s="109" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C92" s="109" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D92" s="110" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E92" s="109" t="s">
         <v>9</v>
@@ -42200,13 +42262,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C93" s="109" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D93" s="110" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E93" s="109" t="s">
         <v>9</v>
@@ -42239,13 +42301,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="109" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C94" s="109" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D94" s="110" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E94" s="109" t="s">
         <v>9</v>
@@ -42278,13 +42340,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="109" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C95" s="109" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D95" s="110" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E95" s="109" t="s">
         <v>9</v>
@@ -42317,13 +42379,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="109" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C96" s="109" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D96" s="110" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="E96" s="109" t="s">
         <v>9</v>
@@ -42356,13 +42418,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="109" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C97" s="109" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D97" s="110" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E97" s="109" t="s">
         <v>9</v>
@@ -42395,13 +42457,13 @@
         <v>9</v>
       </c>
       <c r="B98" s="109" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C98" s="109" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D98" s="110" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E98" s="109" t="s">
         <v>9</v>
@@ -42434,13 +42496,13 @@
         <v>9</v>
       </c>
       <c r="B99" s="109" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C99" s="109" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D99" s="110" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E99" s="109" t="s">
         <v>9</v>
@@ -42473,13 +42535,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="109" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C100" s="109" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D100" s="110" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E100" s="109" t="s">
         <v>9</v>
@@ -42512,13 +42574,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="109" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C101" s="109" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D101" s="110" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E101" s="109" t="s">
         <v>9</v>
@@ -42551,13 +42613,13 @@
         <v>9</v>
       </c>
       <c r="B102" s="109" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C102" s="109" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D102" s="110" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E102" s="109" t="s">
         <v>9</v>
@@ -42590,13 +42652,13 @@
         <v>9</v>
       </c>
       <c r="B103" s="111" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C103" s="111" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D103" s="112" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E103" s="111" t="s">
         <v>9</v>
@@ -42629,13 +42691,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="70" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C104" s="70" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D104" s="113" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E104" s="70" t="s">
         <v>11</v>
@@ -42668,13 +42730,13 @@
         <v>11</v>
       </c>
       <c r="B105" s="70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C105" s="70" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D105" s="113" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E105" s="70" t="s">
         <v>11</v>
@@ -42707,13 +42769,13 @@
         <v>11</v>
       </c>
       <c r="B106" s="70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D106" s="113" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E106" s="70" t="s">
         <v>11</v>
@@ -42746,13 +42808,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C107" s="70" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D107" s="113" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E107" s="70" t="s">
         <v>11</v>
@@ -42785,13 +42847,13 @@
         <v>11</v>
       </c>
       <c r="B108" s="70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C108" s="70" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D108" s="113" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E108" s="70" t="s">
         <v>11</v>
@@ -42824,13 +42886,13 @@
         <v>11</v>
       </c>
       <c r="B109" s="70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C109" s="70" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D109" s="113" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E109" s="70" t="s">
         <v>11</v>
@@ -42863,13 +42925,13 @@
         <v>11</v>
       </c>
       <c r="B110" s="70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C110" s="70" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D110" s="113" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E110" s="70" t="s">
         <v>11</v>
@@ -42902,13 +42964,13 @@
         <v>11</v>
       </c>
       <c r="B111" s="70" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D111" s="113" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E111" s="70" t="s">
         <v>11</v>
@@ -42941,13 +43003,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="70" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D112" s="113" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E112" s="70" t="s">
         <v>11</v>
@@ -42980,13 +43042,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="70" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C113" s="70" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D113" s="113" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E113" s="70" t="s">
         <v>11</v>
@@ -43019,13 +43081,13 @@
         <v>11</v>
       </c>
       <c r="B114" s="70" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C114" s="70" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D114" s="113" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E114" s="70" t="s">
         <v>11</v>
@@ -43058,13 +43120,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="70" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C115" s="70" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D115" s="113" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E115" s="70" t="s">
         <v>11</v>
@@ -43097,13 +43159,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="70" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C116" s="70" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D116" s="113" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E116" s="70" t="s">
         <v>11</v>
@@ -43136,13 +43198,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="70" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D117" s="113" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E117" s="70" t="s">
         <v>11</v>
@@ -43175,13 +43237,13 @@
         <v>11</v>
       </c>
       <c r="B118" s="70" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C118" s="70" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D118" s="113" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E118" s="70" t="s">
         <v>11</v>
@@ -43214,13 +43276,13 @@
         <v>11</v>
       </c>
       <c r="B119" s="70" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D119" s="113" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="E119" s="70" t="s">
         <v>11</v>
@@ -43253,13 +43315,13 @@
         <v>11</v>
       </c>
       <c r="B120" s="70" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D120" s="113" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E120" s="70" t="s">
         <v>11</v>
@@ -43292,13 +43354,13 @@
         <v>11</v>
       </c>
       <c r="B121" s="70" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D121" s="113" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E121" s="70" t="s">
         <v>11</v>
@@ -43331,13 +43393,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="70" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D122" s="113" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E122" s="70" t="s">
         <v>11</v>
@@ -43370,13 +43432,13 @@
         <v>11</v>
       </c>
       <c r="B123" s="70" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D123" s="113" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E123" s="70" t="s">
         <v>11</v>
@@ -43409,13 +43471,13 @@
         <v>11</v>
       </c>
       <c r="B124" s="70" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D124" s="113" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E124" s="70" t="s">
         <v>11</v>
@@ -43448,13 +43510,13 @@
         <v>11</v>
       </c>
       <c r="B125" s="70" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D125" s="113" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E125" s="70" t="s">
         <v>11</v>
@@ -43487,13 +43549,13 @@
         <v>11</v>
       </c>
       <c r="B126" s="70" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C126" s="70" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D126" s="113" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="E126" s="70" t="s">
         <v>11</v>
@@ -43526,13 +43588,13 @@
         <v>11</v>
       </c>
       <c r="B127" s="70" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C127" s="70" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D127" s="113" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="E127" s="70" t="s">
         <v>11</v>
@@ -43565,13 +43627,13 @@
         <v>11</v>
       </c>
       <c r="B128" s="70" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C128" s="70" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D128" s="113" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E128" s="70" t="s">
         <v>11</v>
@@ -43604,13 +43666,13 @@
         <v>11</v>
       </c>
       <c r="B129" s="70" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C129" s="70" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D129" s="113" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E129" s="70" t="s">
         <v>11</v>
@@ -43643,13 +43705,13 @@
         <v>11</v>
       </c>
       <c r="B130" s="70" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C130" s="70" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D130" s="113" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E130" s="70" t="s">
         <v>11</v>
@@ -43682,13 +43744,13 @@
         <v>11</v>
       </c>
       <c r="B131" s="70" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C131" s="70" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D131" s="113" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E131" s="70" t="s">
         <v>11</v>
@@ -43721,13 +43783,13 @@
         <v>11</v>
       </c>
       <c r="B132" s="70" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C132" s="70" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D132" s="113" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="E132" s="70" t="s">
         <v>11</v>
@@ -43760,13 +43822,13 @@
         <v>11</v>
       </c>
       <c r="B133" s="70" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C133" s="70" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D133" s="113" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E133" s="70" t="s">
         <v>11</v>
@@ -68734,26 +68796,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="666">
   <si>
     <t>ID Bloco</t>
   </si>
@@ -336,7 +336,13 @@
     <t>P9gb</t>
   </si>
   <si>
-    <t xml:space="preserve">Estamos chegando ao final do bloco "Passos para a fuga". Obrigada por ter respondido até aqui. Você é forte e corajosa!  O PenhaS quer te ajudar a sair de casa e a romper com o ciclo de violência, conseguindo organizar os itens mais importantes para que a sua saída seja mais segura. Por isso, certifique-se de todos os itens que aparecerão no seu plano. Eles são personalizados a partir de suas respostas, por isso é tão importante que você siga respondendo a todos os blocos. </t>
+    <t>[%IF refazer='Y'%]Obrigada por fornecer uma nova resposta. Vamos ajustar o bloco "Passos para a fuga" com base nas informações mais recentes. Sua persistência e coragem são notáveis! O PenhaS está aqui para te apoiar em cada passo do caminho.[%ELSE%]Estamos chegando ao final do bloco "Passos para a fuga". Obrigada por ter respondido até aqui. Você é forte e corajosa!  O PenhaS quer te ajudar a sair de casa e a romper com o ciclo de violência, conseguindo organizar os itens mais importantes para que a sua saída seja mais segura. Por isso, certifique-se de todos os itens que aparecerão no seu plano. Eles são personalizados a partir de suas respostas, por isso é tão importante que você siga respondendo a todos os blocos.[%END%]</t>
+  </si>
+  <si>
+    <t>btnOut</t>
+  </si>
+  <si>
+    <t>{ "type": "botao_fim", "relevance": "refazer='Y' "}</t>
   </si>
   <si>
     <t>P9out</t>
@@ -2164,12 +2170,18 @@
   <si>
     <t>Caso responda sim, vai limpar as tarefas</t>
   </si>
+  <si>
+    <t>NAO_LIMPA_MF</t>
+  </si>
+  <si>
+    <t>Caso responda nao, vai limpar as tarefas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2316,6 +2328,10 @@
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2437,7 +2453,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2904,6 +2920,12 @@
     <xf borderId="11" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4401,11 +4423,13 @@
       <c r="B26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4430,25 +4454,21 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>86</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1.0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -4471,22 +4491,22 @@
         <v>7</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="C28" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -4509,16 +4529,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>100</v>
+      <c r="E29" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -4546,17 +4566,17 @@
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -4584,21 +4604,19 @@
       <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -4624,19 +4642,21 @@
       <c r="A32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="F32" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -4663,16 +4683,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -4701,16 +4721,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -4739,16 +4759,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -4777,22 +4797,22 @@
         <v>7</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="15"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -4812,19 +4832,19 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1.0</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -4855,20 +4875,20 @@
       <c r="B38" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.0</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="13"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -4891,16 +4911,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -4926,19 +4946,19 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1.0</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4973,10 +4993,10 @@
         <v>134</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>135</v>
+        <v>52</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.0</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -5005,16 +5025,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -5043,16 +5063,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -5081,16 +5101,16 @@
         <v>11</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -5119,16 +5139,16 @@
         <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -5157,16 +5177,16 @@
         <v>11</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -5195,16 +5215,16 @@
         <v>11</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -5229,11 +5249,21 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -5257,24 +5287,16 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="15"/>
+      <c r="J49" s="13"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -5293,16 +5315,24 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="13"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -10080,13 +10110,41 @@
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
     </row>
+    <row r="221" ht="12.75" customHeight="1">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="6"/>
+      <c r="U221" s="6"/>
+      <c r="V221" s="6"/>
+      <c r="W221" s="6"/>
+      <c r="X221" s="6"/>
+      <c r="Y221" s="6"/>
+      <c r="Z221" s="6"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2 D6:D49">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D5 D26">
+      <formula1>"AC,SC,MC,SNT,SN,PQ,PS,BF,ET,RF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2 D6:D25 D27:D50">
       <formula1>"AC,SC,MC,SNT,SN,PQ,PS,BF,ET"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D5">
-      <formula1>"AC,SC,MC,SNT,SN,PQ,PS,BF,ET,RF"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -10121,16 +10179,16 @@
   <sheetData>
     <row r="1" ht="42.0" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -10165,10 +10223,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="13"/>
@@ -10201,10 +10259,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -10236,10 +10294,10 @@
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -10271,10 +10329,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -10306,10 +10364,10 @@
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -10341,10 +10399,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -10376,10 +10434,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -10411,10 +10469,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -10446,10 +10504,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="13"/>
@@ -10482,10 +10540,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="13"/>
@@ -10518,10 +10576,10 @@
         <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -10550,13 +10608,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="13"/>
@@ -10586,13 +10644,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -10621,13 +10679,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -10656,13 +10714,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -10691,13 +10749,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -10729,10 +10787,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -10764,10 +10822,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -10799,7 +10857,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="31"/>
@@ -10833,7 +10891,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="31"/>
@@ -10867,10 +10925,10 @@
         <v>87</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -10902,10 +10960,10 @@
         <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="13"/>
@@ -10938,10 +10996,10 @@
         <v>87</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="13"/>
@@ -10974,10 +11032,10 @@
         <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -11009,10 +11067,10 @@
         <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -11044,10 +11102,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -11079,10 +11137,10 @@
         <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11111,13 +11169,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -11146,13 +11204,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -11181,13 +11239,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="6"/>
@@ -11217,13 +11275,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -11252,13 +11310,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="6"/>
@@ -11288,13 +11346,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="6"/>
@@ -11324,13 +11382,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -11359,13 +11417,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="6"/>
@@ -11395,13 +11453,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="6"/>
@@ -11431,16 +11489,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11469,13 +11527,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -11504,13 +11562,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="6"/>
@@ -11540,13 +11598,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -11575,13 +11633,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11610,13 +11668,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -11645,13 +11703,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -11680,13 +11738,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11715,13 +11773,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="6"/>
@@ -11751,13 +11809,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -11786,13 +11844,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -11821,13 +11879,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="6"/>
@@ -11857,13 +11915,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -11892,13 +11950,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -11927,16 +11985,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -11965,13 +12023,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="6"/>
@@ -12001,13 +12059,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -12036,13 +12094,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -12071,13 +12129,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -12106,13 +12164,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="6"/>
@@ -12142,13 +12200,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -12177,13 +12235,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E59" s="31"/>
       <c r="F59" s="6"/>
@@ -12213,13 +12271,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -12248,13 +12306,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="6"/>
@@ -12284,13 +12342,13 @@
         <v>9</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -12319,13 +12377,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="6"/>
@@ -12355,13 +12413,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E64" s="31"/>
       <c r="F64" s="6"/>
@@ -12391,13 +12449,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -12426,13 +12484,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E66" s="31"/>
       <c r="F66" s="6"/>
@@ -12462,13 +12520,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="6"/>
@@ -12498,13 +12556,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -12533,13 +12591,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="6"/>
@@ -12569,13 +12627,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="6"/>
@@ -12605,13 +12663,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="6"/>
@@ -12641,13 +12699,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E72" s="31"/>
       <c r="F72" s="6"/>
@@ -12677,13 +12735,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E73" s="31"/>
       <c r="F73" s="6"/>
@@ -12713,13 +12771,13 @@
         <v>9</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -12748,13 +12806,13 @@
         <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -12783,13 +12841,13 @@
         <v>9</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -12818,13 +12876,13 @@
         <v>11</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E77" s="31"/>
       <c r="F77" s="6"/>
@@ -12854,13 +12912,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -12889,13 +12947,13 @@
         <v>11</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D79" s="34" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="6"/>
@@ -12925,13 +12983,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="6"/>
@@ -12961,13 +13019,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="6"/>
@@ -12997,13 +13055,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="6"/>
@@ -13033,13 +13091,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -13068,13 +13126,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -13103,13 +13161,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E85" s="31"/>
       <c r="F85" s="6"/>
@@ -13139,13 +13197,13 @@
         <v>11</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -13174,13 +13232,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -13209,13 +13267,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="6"/>
@@ -13245,13 +13303,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="6"/>
@@ -13281,13 +13339,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="6"/>
@@ -13317,13 +13375,13 @@
         <v>11</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="6"/>
@@ -13353,13 +13411,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E92" s="31"/>
       <c r="F92" s="6"/>
@@ -13389,13 +13447,13 @@
         <v>11</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D93" s="34" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="6"/>
@@ -13425,13 +13483,13 @@
         <v>11</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -13460,13 +13518,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="6"/>
@@ -13496,13 +13554,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="6"/>
@@ -13532,13 +13590,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -13567,13 +13625,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -38750,19 +38808,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>25</v>
@@ -38793,20 +38851,20 @@
         <v>3</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="63" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -38834,20 +38892,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="67"/>
       <c r="G3" s="63" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -38875,20 +38933,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="71"/>
       <c r="G4" s="63" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -38916,13 +38974,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>5</v>
@@ -38955,13 +39013,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E6" s="81" t="s">
         <v>11</v>
@@ -38994,13 +39052,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>5</v>
@@ -39033,13 +39091,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>11</v>
@@ -39072,13 +39130,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E9" s="81" t="s">
         <v>11</v>
@@ -39111,19 +39169,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="85"/>
@@ -39152,13 +39210,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>5</v>
@@ -39191,13 +39249,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>5</v>
@@ -39230,13 +39288,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>5</v>
@@ -39269,13 +39327,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>5</v>
@@ -39308,13 +39366,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>5</v>
@@ -39347,13 +39405,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>5</v>
@@ -39386,13 +39444,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>5</v>
@@ -39425,13 +39483,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>5</v>
@@ -39464,13 +39522,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>5</v>
@@ -39503,13 +39561,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>5</v>
@@ -39542,13 +39600,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>5</v>
@@ -39581,13 +39639,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>5</v>
@@ -39620,13 +39678,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>5</v>
@@ -39659,13 +39717,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>5</v>
@@ -39698,13 +39756,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>5</v>
@@ -39737,13 +39795,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D26" s="85" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>5</v>
@@ -39776,13 +39834,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>5</v>
@@ -39815,13 +39873,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E28" s="102" t="s">
         <v>13</v>
@@ -39854,13 +39912,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E29" s="107" t="s">
         <v>13</v>
@@ -39893,13 +39951,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E30" s="107" t="s">
         <v>13</v>
@@ -39932,13 +39990,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E31" s="107" t="s">
         <v>13</v>
@@ -39971,13 +40029,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E32" s="107" t="s">
         <v>13</v>
@@ -40010,13 +40068,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C33" s="105" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E33" s="107" t="s">
         <v>13</v>
@@ -40049,13 +40107,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E34" s="107" t="s">
         <v>13</v>
@@ -40088,13 +40146,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E35" s="107" t="s">
         <v>13</v>
@@ -40127,13 +40185,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C36" s="105" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E36" s="107" t="s">
         <v>13</v>
@@ -40166,13 +40224,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E37" s="107" t="s">
         <v>13</v>
@@ -40205,13 +40263,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C38" s="105" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E38" s="107" t="s">
         <v>13</v>
@@ -40244,13 +40302,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" s="105" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D39" s="106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E39" s="107" t="s">
         <v>13</v>
@@ -40283,13 +40341,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" s="105" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E40" s="107" t="s">
         <v>13</v>
@@ -40322,13 +40380,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C41" s="105" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E41" s="107" t="s">
         <v>13</v>
@@ -40361,13 +40419,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E42" s="107" t="s">
         <v>13</v>
@@ -40400,13 +40458,13 @@
         <v>13</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C43" s="105" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E43" s="107" t="s">
         <v>13</v>
@@ -40439,13 +40497,13 @@
         <v>13</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C44" s="105" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D44" s="106" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E44" s="107" t="s">
         <v>13</v>
@@ -40478,13 +40536,13 @@
         <v>13</v>
       </c>
       <c r="B45" s="104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C45" s="105" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D45" s="106" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E45" s="107" t="s">
         <v>13</v>
@@ -40517,13 +40575,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C46" s="105" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>13</v>
@@ -40556,13 +40614,13 @@
         <v>13</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E47" s="107" t="s">
         <v>13</v>
@@ -40595,13 +40653,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="111" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C48" s="112" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D48" s="113" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E48" s="114" t="s">
         <v>13</v>
@@ -40634,13 +40692,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E49" s="118" t="s">
         <v>7</v>
@@ -40673,13 +40731,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E50" s="118" t="s">
         <v>7</v>
@@ -40712,13 +40770,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C51" s="116" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E51" s="118" t="s">
         <v>7</v>
@@ -40751,13 +40809,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C52" s="116" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E52" s="118" t="s">
         <v>7</v>
@@ -40790,13 +40848,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E53" s="118" t="s">
         <v>7</v>
@@ -40829,13 +40887,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C54" s="116" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E54" s="118" t="s">
         <v>7</v>
@@ -40868,13 +40926,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C55" s="116" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E55" s="118" t="s">
         <v>7</v>
@@ -40907,13 +40965,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C56" s="116" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E56" s="118" t="s">
         <v>7</v>
@@ -40946,13 +41004,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C57" s="120" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D57" s="121" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E57" s="122" t="s">
         <v>11</v>
@@ -40985,13 +41043,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C58" s="120" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D58" s="121" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E58" s="122" t="s">
         <v>11</v>
@@ -41024,13 +41082,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C59" s="120" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D59" s="121" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E59" s="122" t="s">
         <v>11</v>
@@ -41063,13 +41121,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="116" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C60" s="116" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E60" s="118" t="s">
         <v>7</v>
@@ -41102,13 +41160,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="116" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C61" s="116" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E61" s="118" t="s">
         <v>7</v>
@@ -41141,13 +41199,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="124" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C62" s="124" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D62" s="125" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E62" s="126" t="s">
         <v>7</v>
@@ -41180,13 +41238,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="128" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C63" s="128" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D63" s="129" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E63" s="130" t="s">
         <v>7</v>
@@ -41219,13 +41277,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C64" s="116" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E64" s="118" t="s">
         <v>7</v>
@@ -41258,13 +41316,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C65" s="116" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E65" s="118" t="s">
         <v>7</v>
@@ -41297,13 +41355,13 @@
         <v>7</v>
       </c>
       <c r="B66" s="116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C66" s="116" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E66" s="118" t="s">
         <v>7</v>
@@ -41336,20 +41394,20 @@
         <v>7</v>
       </c>
       <c r="B67" s="116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C67" s="116" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D67" s="131" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E67" s="118" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="89" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -41377,20 +41435,20 @@
         <v>7</v>
       </c>
       <c r="B68" s="116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C68" s="132" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E68" s="118" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="89" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -41418,20 +41476,20 @@
         <v>7</v>
       </c>
       <c r="B69" s="116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C69" s="116" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E69" s="118" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="89" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -41459,13 +41517,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C70" s="132" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E70" s="118" t="s">
         <v>7</v>
@@ -41498,13 +41556,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="116" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C71" s="132" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E71" s="118" t="s">
         <v>7</v>
@@ -41537,13 +41595,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="116" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C72" s="132" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E72" s="118" t="s">
         <v>7</v>
@@ -41576,13 +41634,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="116" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C73" s="132" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E73" s="118" t="s">
         <v>7</v>
@@ -41615,13 +41673,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="116" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C74" s="116" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E74" s="118" t="s">
         <v>7</v>
@@ -41654,13 +41712,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C75" s="116" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E75" s="118" t="s">
         <v>7</v>
@@ -41693,13 +41751,13 @@
         <v>7</v>
       </c>
       <c r="B76" s="116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C76" s="116" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E76" s="118" t="s">
         <v>7</v>
@@ -41732,13 +41790,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="116" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C77" s="116" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E77" s="118" t="s">
         <v>7</v>
@@ -41771,13 +41829,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="116" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C78" s="116" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E78" s="118" t="s">
         <v>7</v>
@@ -41810,13 +41868,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="124" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C79" s="124" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D79" s="125" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E79" s="126" t="s">
         <v>7</v>
@@ -41849,13 +41907,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C80" s="134" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D80" s="135" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E80" s="136" t="s">
         <v>9</v>
@@ -41888,13 +41946,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="134" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C81" s="134" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D81" s="135" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E81" s="136" t="s">
         <v>9</v>
@@ -41927,13 +41985,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="134" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C82" s="134" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D82" s="135" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E82" s="136" t="s">
         <v>9</v>
@@ -41966,13 +42024,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="134" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C83" s="134" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D83" s="135" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E83" s="136" t="s">
         <v>9</v>
@@ -42005,13 +42063,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C84" s="134" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D84" s="135" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E84" s="136" t="s">
         <v>9</v>
@@ -42044,13 +42102,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C85" s="134" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D85" s="135" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E85" s="136" t="s">
         <v>9</v>
@@ -42083,13 +42141,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="134" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C86" s="134" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D86" s="135" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E86" s="136" t="s">
         <v>9</v>
@@ -42122,13 +42180,13 @@
         <v>9</v>
       </c>
       <c r="B87" s="134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C87" s="134" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D87" s="135" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E87" s="136" t="s">
         <v>9</v>
@@ -42161,13 +42219,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C88" s="134" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D88" s="137" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E88" s="136" t="s">
         <v>9</v>
@@ -42200,13 +42258,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="134" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C89" s="134" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D89" s="135" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E89" s="136" t="s">
         <v>9</v>
@@ -42239,20 +42297,20 @@
         <v>9</v>
       </c>
       <c r="B90" s="134" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C90" s="134" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D90" s="135" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E90" s="136" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="89" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -42280,20 +42338,20 @@
         <v>9</v>
       </c>
       <c r="B91" s="134" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C91" s="134" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D91" s="135" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E91" s="136" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="89" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -42321,13 +42379,13 @@
         <v>9</v>
       </c>
       <c r="B92" s="139" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C92" s="139" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D92" s="140" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E92" s="141" t="s">
         <v>9</v>
@@ -42360,13 +42418,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="139" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C93" s="139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D93" s="140" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E93" s="141" t="s">
         <v>9</v>
@@ -42399,13 +42457,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C94" s="139" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D94" s="140" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E94" s="141" t="s">
         <v>9</v>
@@ -42438,13 +42496,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="139" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C95" s="139" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D95" s="140" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E95" s="141" t="s">
         <v>9</v>
@@ -42477,13 +42535,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="139" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C96" s="139" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D96" s="140" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E96" s="141" t="s">
         <v>9</v>
@@ -42516,13 +42574,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="139" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C97" s="139" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D97" s="140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E97" s="141" t="s">
         <v>9</v>
@@ -42555,13 +42613,13 @@
         <v>9</v>
       </c>
       <c r="B98" s="139" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C98" s="139" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D98" s="140" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E98" s="141" t="s">
         <v>9</v>
@@ -42594,13 +42652,13 @@
         <v>9</v>
       </c>
       <c r="B99" s="139" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C99" s="139" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D99" s="140" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E99" s="141" t="s">
         <v>9</v>
@@ -42633,13 +42691,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C100" s="139" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D100" s="140" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E100" s="141" t="s">
         <v>9</v>
@@ -42672,13 +42730,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="139" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C101" s="139" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D101" s="140" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E101" s="141" t="s">
         <v>9</v>
@@ -42711,13 +42769,13 @@
         <v>9</v>
       </c>
       <c r="B102" s="139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C102" s="139" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D102" s="140" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E102" s="141" t="s">
         <v>9</v>
@@ -42750,13 +42808,13 @@
         <v>9</v>
       </c>
       <c r="B103" s="143" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C103" s="143" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D103" s="144" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E103" s="145" t="s">
         <v>9</v>
@@ -42789,13 +42847,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="147" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C104" s="147" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D104" s="148" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E104" s="149" t="s">
         <v>11</v>
@@ -42828,13 +42886,13 @@
         <v>11</v>
       </c>
       <c r="B105" s="78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C105" s="78" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D105" s="151" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E105" s="81" t="s">
         <v>11</v>
@@ -42867,13 +42925,13 @@
         <v>11</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C106" s="78" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D106" s="151" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E106" s="81" t="s">
         <v>11</v>
@@ -42906,13 +42964,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C107" s="78" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D107" s="151" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E107" s="81" t="s">
         <v>11</v>
@@ -42945,13 +43003,13 @@
         <v>11</v>
       </c>
       <c r="B108" s="78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C108" s="78" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D108" s="151" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E108" s="81" t="s">
         <v>11</v>
@@ -42984,13 +43042,13 @@
         <v>11</v>
       </c>
       <c r="B109" s="78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C109" s="78" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D109" s="151" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E109" s="81" t="s">
         <v>11</v>
@@ -43023,13 +43081,13 @@
         <v>11</v>
       </c>
       <c r="B110" s="78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C110" s="78" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D110" s="151" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E110" s="81" t="s">
         <v>11</v>
@@ -43062,13 +43120,13 @@
         <v>11</v>
       </c>
       <c r="B111" s="78" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C111" s="78" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D111" s="151" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E111" s="81" t="s">
         <v>11</v>
@@ -43101,13 +43159,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="78" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C112" s="78" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D112" s="151" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E112" s="81" t="s">
         <v>11</v>
@@ -43140,13 +43198,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="78" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C113" s="78" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D113" s="151" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E113" s="81" t="s">
         <v>11</v>
@@ -43179,13 +43237,13 @@
         <v>11</v>
       </c>
       <c r="B114" s="78" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C114" s="78" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D114" s="151" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E114" s="81" t="s">
         <v>11</v>
@@ -43218,13 +43276,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="78" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C115" s="78" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D115" s="151" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E115" s="81" t="s">
         <v>11</v>
@@ -43257,13 +43315,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="78" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C116" s="78" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D116" s="151" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E116" s="81" t="s">
         <v>11</v>
@@ -43296,13 +43354,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="78" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C117" s="78" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D117" s="151" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E117" s="81" t="s">
         <v>11</v>
@@ -43335,13 +43393,13 @@
         <v>11</v>
       </c>
       <c r="B118" s="78" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C118" s="78" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D118" s="151" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E118" s="81" t="s">
         <v>11</v>
@@ -43374,13 +43432,13 @@
         <v>11</v>
       </c>
       <c r="B119" s="78" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C119" s="78" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D119" s="151" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E119" s="81" t="s">
         <v>11</v>
@@ -43413,13 +43471,13 @@
         <v>11</v>
       </c>
       <c r="B120" s="78" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C120" s="78" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D120" s="151" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E120" s="81" t="s">
         <v>11</v>
@@ -43452,13 +43510,13 @@
         <v>11</v>
       </c>
       <c r="B121" s="78" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C121" s="78" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D121" s="151" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E121" s="81" t="s">
         <v>11</v>
@@ -43491,13 +43549,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="78" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C122" s="78" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D122" s="151" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E122" s="81" t="s">
         <v>11</v>
@@ -43530,13 +43588,13 @@
         <v>11</v>
       </c>
       <c r="B123" s="78" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C123" s="78" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D123" s="151" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E123" s="81" t="s">
         <v>11</v>
@@ -43569,13 +43627,13 @@
         <v>11</v>
       </c>
       <c r="B124" s="78" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C124" s="78" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D124" s="151" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E124" s="81" t="s">
         <v>11</v>
@@ -43608,13 +43666,13 @@
         <v>11</v>
       </c>
       <c r="B125" s="78" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C125" s="78" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D125" s="151" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E125" s="81" t="s">
         <v>11</v>
@@ -43647,13 +43705,13 @@
         <v>11</v>
       </c>
       <c r="B126" s="78" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C126" s="78" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D126" s="151" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E126" s="81" t="s">
         <v>11</v>
@@ -43686,13 +43744,13 @@
         <v>11</v>
       </c>
       <c r="B127" s="78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C127" s="78" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D127" s="151" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E127" s="81" t="s">
         <v>11</v>
@@ -43725,13 +43783,13 @@
         <v>11</v>
       </c>
       <c r="B128" s="78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C128" s="78" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D128" s="151" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E128" s="81" t="s">
         <v>11</v>
@@ -43764,13 +43822,13 @@
         <v>11</v>
       </c>
       <c r="B129" s="78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C129" s="78" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D129" s="151" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E129" s="81" t="s">
         <v>11</v>
@@ -43803,13 +43861,13 @@
         <v>11</v>
       </c>
       <c r="B130" s="78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C130" s="78" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D130" s="151" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E130" s="81" t="s">
         <v>11</v>
@@ -43842,13 +43900,13 @@
         <v>11</v>
       </c>
       <c r="B131" s="78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C131" s="78" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D131" s="151" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E131" s="81" t="s">
         <v>11</v>
@@ -43881,13 +43939,13 @@
         <v>11</v>
       </c>
       <c r="B132" s="78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C132" s="78" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D132" s="151" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E132" s="81" t="s">
         <v>11</v>
@@ -43920,13 +43978,13 @@
         <v>11</v>
       </c>
       <c r="B133" s="153" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C133" s="153" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D133" s="154" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E133" s="155" t="s">
         <v>11</v>
@@ -68894,34 +68952,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="156" t="s">
+        <v>664</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="667">
   <si>
     <t>ID Bloco</t>
   </si>
@@ -336,13 +336,16 @@
     <t>P9gb</t>
   </si>
   <si>
-    <t>[%IF refazer='Y'%]Obrigada por fornecer uma nova resposta. Vamos ajustar o bloco "Passos para a fuga" com base nas informações mais recentes. Sua persistência e coragem são notáveis! O PenhaS está aqui para te apoiar em cada passo do caminho.[%ELSE%]Estamos chegando ao final do bloco "Passos para a fuga". Obrigada por ter respondido até aqui. Você é forte e corajosa!  O PenhaS quer te ajudar a sair de casa e a romper com o ciclo de violência, conseguindo organizar os itens mais importantes para que a sua saída seja mais segura. Por isso, certifique-se de todos os itens que aparecerão no seu plano. Eles são personalizados a partir de suas respostas, por isso é tão importante que você siga respondendo a todos os blocos.[%END%]</t>
+    <t>[%IF refazer=='Y'%][%ELSE%]Estamos chegando ao final do bloco "Passos para a fuga". Obrigada por ter respondido até aqui. Você é forte e corajosa!  O PenhaS quer te ajudar a sair de casa e a romper com o ciclo de violência, conseguindo organizar os itens mais importantes para que a sua saída seja mais segura. Por isso, certifique-se de todos os itens que aparecerão no seu plano. Eles são personalizados a partir de suas respostas, por isso é tão importante que você siga respondendo a todos os blocos.[%END%]</t>
   </si>
   <si>
     <t>btnOut</t>
   </si>
   <si>
-    <t>{ "type": "botao_fim", "relevance": "refazer='Y' "}</t>
+    <t>Obrigada por fornecer uma nova resposta. Vamos ajustar o bloco "Passos para a fuga" com base nas informações mais recentes. Sua persistência e coragem são notáveis! O PenhaS está aqui para te apoiar em cada passo do caminho.</t>
+  </si>
+  <si>
+    <t>{ "type": "botao_fim", "relevance": "refazer=='Y' "}</t>
   </si>
   <si>
     <t>P9out</t>
@@ -4423,12 +4426,14 @@
       <c r="B26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -4457,11 +4462,11 @@
         <v>13</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -4491,7 +4496,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>86</v>
@@ -4529,16 +4534,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -4567,16 +4572,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -4605,16 +4610,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -4643,19 +4648,19 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -4683,16 +4688,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -4721,16 +4726,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -4759,16 +4764,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -4797,16 +4802,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -4835,16 +4840,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -4873,10 +4878,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>52</v>
@@ -4911,16 +4916,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -4949,16 +4954,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -4987,10 +4992,10 @@
         <v>11</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>52</v>
@@ -5025,16 +5030,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -5063,16 +5068,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -5101,16 +5106,16 @@
         <v>11</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -5139,16 +5144,16 @@
         <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -5177,16 +5182,16 @@
         <v>11</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -5215,16 +5220,16 @@
         <v>11</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -5253,16 +5258,16 @@
         <v>11</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -5319,10 +5324,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>15</v>
@@ -10179,16 +10184,16 @@
   <sheetData>
     <row r="1" ht="42.0" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -10223,10 +10228,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="13"/>
@@ -10259,10 +10264,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -10294,10 +10299,10 @@
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -10329,10 +10334,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -10364,10 +10369,10 @@
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -10399,10 +10404,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -10434,10 +10439,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -10469,10 +10474,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -10504,10 +10509,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="13"/>
@@ -10540,10 +10545,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="13"/>
@@ -10576,10 +10581,10 @@
         <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -10608,13 +10613,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="13"/>
@@ -10644,13 +10649,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -10679,13 +10684,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -10714,13 +10719,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -10749,13 +10754,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -10787,10 +10792,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -10822,10 +10827,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -10857,7 +10862,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="31"/>
@@ -10891,7 +10896,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="31"/>
@@ -10925,10 +10930,10 @@
         <v>87</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -10960,10 +10965,10 @@
         <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="13"/>
@@ -10996,10 +11001,10 @@
         <v>87</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="13"/>
@@ -11032,10 +11037,10 @@
         <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -11067,10 +11072,10 @@
         <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -11102,10 +11107,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -11137,10 +11142,10 @@
         <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11169,13 +11174,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -11204,13 +11209,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -11239,13 +11244,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="6"/>
@@ -11275,13 +11280,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -11310,13 +11315,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="6"/>
@@ -11346,13 +11351,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="6"/>
@@ -11382,13 +11387,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -11417,13 +11422,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="6"/>
@@ -11453,13 +11458,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="6"/>
@@ -11489,16 +11494,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11527,13 +11532,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -11562,13 +11567,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="6"/>
@@ -11598,13 +11603,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -11633,13 +11638,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11668,13 +11673,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -11703,13 +11708,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -11738,13 +11743,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -11773,13 +11778,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="6"/>
@@ -11809,13 +11814,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -11844,13 +11849,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -11879,13 +11884,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="6"/>
@@ -11915,13 +11920,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -11950,13 +11955,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -11985,16 +11990,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -12023,13 +12028,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="6"/>
@@ -12059,13 +12064,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -12094,13 +12099,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -12129,13 +12134,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -12164,13 +12169,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="6"/>
@@ -12200,13 +12205,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -12235,13 +12240,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E59" s="31"/>
       <c r="F59" s="6"/>
@@ -12271,13 +12276,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -12306,13 +12311,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="6"/>
@@ -12342,13 +12347,13 @@
         <v>9</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -12377,13 +12382,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="6"/>
@@ -12413,13 +12418,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E64" s="31"/>
       <c r="F64" s="6"/>
@@ -12449,13 +12454,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -12484,13 +12489,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E66" s="31"/>
       <c r="F66" s="6"/>
@@ -12520,13 +12525,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="6"/>
@@ -12556,13 +12561,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -12591,13 +12596,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="6"/>
@@ -12627,13 +12632,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="6"/>
@@ -12663,13 +12668,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="6"/>
@@ -12699,13 +12704,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E72" s="31"/>
       <c r="F72" s="6"/>
@@ -12735,13 +12740,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E73" s="31"/>
       <c r="F73" s="6"/>
@@ -12771,13 +12776,13 @@
         <v>9</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -12806,13 +12811,13 @@
         <v>9</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -12841,13 +12846,13 @@
         <v>9</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -12876,13 +12881,13 @@
         <v>11</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E77" s="31"/>
       <c r="F77" s="6"/>
@@ -12912,13 +12917,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -12947,13 +12952,13 @@
         <v>11</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D79" s="34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="6"/>
@@ -12983,13 +12988,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="6"/>
@@ -13019,13 +13024,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="6"/>
@@ -13055,13 +13060,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="6"/>
@@ -13091,13 +13096,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D83" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -13126,13 +13131,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D84" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -13161,13 +13166,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E85" s="31"/>
       <c r="F85" s="6"/>
@@ -13197,13 +13202,13 @@
         <v>11</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -13232,13 +13237,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -13267,13 +13272,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="6"/>
@@ -13303,13 +13308,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="6"/>
@@ -13339,13 +13344,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="6"/>
@@ -13375,13 +13380,13 @@
         <v>11</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="6"/>
@@ -13411,13 +13416,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E92" s="31"/>
       <c r="F92" s="6"/>
@@ -13447,13 +13452,13 @@
         <v>11</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D93" s="34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E93" s="31"/>
       <c r="F93" s="6"/>
@@ -13483,13 +13488,13 @@
         <v>11</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -13518,13 +13523,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="6"/>
@@ -13554,13 +13559,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="6"/>
@@ -13590,13 +13595,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -13625,13 +13630,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -38808,19 +38813,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>25</v>
@@ -38851,20 +38856,20 @@
         <v>3</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -38892,20 +38897,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="67"/>
       <c r="G3" s="63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -38933,20 +38938,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="71"/>
       <c r="G4" s="63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -38974,13 +38979,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>5</v>
@@ -39013,13 +39018,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E6" s="81" t="s">
         <v>11</v>
@@ -39052,13 +39057,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>5</v>
@@ -39091,13 +39096,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E8" s="81" t="s">
         <v>11</v>
@@ -39130,13 +39135,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E9" s="81" t="s">
         <v>11</v>
@@ -39169,19 +39174,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="85"/>
@@ -39210,13 +39215,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E11" s="86" t="s">
         <v>5</v>
@@ -39249,13 +39254,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>5</v>
@@ -39288,13 +39293,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E13" s="86" t="s">
         <v>5</v>
@@ -39327,13 +39332,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>5</v>
@@ -39366,13 +39371,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E15" s="86" t="s">
         <v>5</v>
@@ -39405,13 +39410,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E16" s="86" t="s">
         <v>5</v>
@@ -39444,13 +39449,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E17" s="86" t="s">
         <v>5</v>
@@ -39483,13 +39488,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E18" s="86" t="s">
         <v>5</v>
@@ -39522,13 +39527,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>5</v>
@@ -39561,13 +39566,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>5</v>
@@ -39600,13 +39605,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E21" s="86" t="s">
         <v>5</v>
@@ -39639,13 +39644,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E22" s="86" t="s">
         <v>5</v>
@@ -39678,13 +39683,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E23" s="86" t="s">
         <v>5</v>
@@ -39717,13 +39722,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E24" s="86" t="s">
         <v>5</v>
@@ -39756,13 +39761,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E25" s="86" t="s">
         <v>5</v>
@@ -39795,13 +39800,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D26" s="85" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>5</v>
@@ -39834,13 +39839,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="95" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E27" s="86" t="s">
         <v>5</v>
@@ -39873,13 +39878,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E28" s="102" t="s">
         <v>13</v>
@@ -39912,13 +39917,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C29" s="105" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E29" s="107" t="s">
         <v>13</v>
@@ -39951,13 +39956,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E30" s="107" t="s">
         <v>13</v>
@@ -39990,13 +39995,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E31" s="107" t="s">
         <v>13</v>
@@ -40029,13 +40034,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E32" s="107" t="s">
         <v>13</v>
@@ -40068,13 +40073,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C33" s="105" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E33" s="107" t="s">
         <v>13</v>
@@ -40107,13 +40112,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E34" s="107" t="s">
         <v>13</v>
@@ -40146,13 +40151,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E35" s="107" t="s">
         <v>13</v>
@@ -40185,13 +40190,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C36" s="105" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E36" s="107" t="s">
         <v>13</v>
@@ -40224,13 +40229,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E37" s="107" t="s">
         <v>13</v>
@@ -40263,13 +40268,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C38" s="105" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E38" s="107" t="s">
         <v>13</v>
@@ -40302,13 +40307,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="105" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D39" s="106" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E39" s="107" t="s">
         <v>13</v>
@@ -40341,13 +40346,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C40" s="105" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E40" s="107" t="s">
         <v>13</v>
@@ -40380,13 +40385,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C41" s="105" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D41" s="106" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E41" s="107" t="s">
         <v>13</v>
@@ -40419,13 +40424,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C42" s="105" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D42" s="106" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E42" s="107" t="s">
         <v>13</v>
@@ -40458,13 +40463,13 @@
         <v>13</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C43" s="105" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E43" s="107" t="s">
         <v>13</v>
@@ -40497,13 +40502,13 @@
         <v>13</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44" s="105" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D44" s="106" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E44" s="107" t="s">
         <v>13</v>
@@ -40536,13 +40541,13 @@
         <v>13</v>
       </c>
       <c r="B45" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C45" s="105" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D45" s="106" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E45" s="107" t="s">
         <v>13</v>
@@ -40575,13 +40580,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C46" s="105" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D46" s="106" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E46" s="107" t="s">
         <v>13</v>
@@ -40614,13 +40619,13 @@
         <v>13</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C47" s="105" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E47" s="107" t="s">
         <v>13</v>
@@ -40653,13 +40658,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="111" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C48" s="112" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D48" s="113" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E48" s="114" t="s">
         <v>13</v>
@@ -40692,13 +40697,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C49" s="117" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E49" s="118" t="s">
         <v>7</v>
@@ -40731,13 +40736,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C50" s="117" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E50" s="118" t="s">
         <v>7</v>
@@ -40770,13 +40775,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C51" s="116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E51" s="118" t="s">
         <v>7</v>
@@ -40809,13 +40814,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C52" s="116" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E52" s="118" t="s">
         <v>7</v>
@@ -40848,13 +40853,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E53" s="118" t="s">
         <v>7</v>
@@ -40887,13 +40892,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C54" s="116" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E54" s="118" t="s">
         <v>7</v>
@@ -40926,13 +40931,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C55" s="116" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E55" s="118" t="s">
         <v>7</v>
@@ -40965,13 +40970,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C56" s="116" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E56" s="118" t="s">
         <v>7</v>
@@ -41004,13 +41009,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C57" s="120" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D57" s="121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E57" s="122" t="s">
         <v>11</v>
@@ -41043,13 +41048,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C58" s="120" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D58" s="121" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E58" s="122" t="s">
         <v>11</v>
@@ -41082,13 +41087,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C59" s="120" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D59" s="121" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E59" s="122" t="s">
         <v>11</v>
@@ -41121,13 +41126,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C60" s="116" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E60" s="118" t="s">
         <v>7</v>
@@ -41160,13 +41165,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="116" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C61" s="116" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E61" s="118" t="s">
         <v>7</v>
@@ -41199,13 +41204,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="124" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C62" s="124" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D62" s="125" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E62" s="126" t="s">
         <v>7</v>
@@ -41238,13 +41243,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="128" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C63" s="128" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D63" s="129" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E63" s="130" t="s">
         <v>7</v>
@@ -41277,13 +41282,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C64" s="116" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E64" s="118" t="s">
         <v>7</v>
@@ -41316,13 +41321,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C65" s="116" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E65" s="118" t="s">
         <v>7</v>
@@ -41355,13 +41360,13 @@
         <v>7</v>
       </c>
       <c r="B66" s="116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C66" s="116" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E66" s="118" t="s">
         <v>7</v>
@@ -41394,20 +41399,20 @@
         <v>7</v>
       </c>
       <c r="B67" s="116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C67" s="116" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D67" s="131" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E67" s="118" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="89" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -41435,20 +41440,20 @@
         <v>7</v>
       </c>
       <c r="B68" s="116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C68" s="132" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E68" s="118" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="89" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -41476,20 +41481,20 @@
         <v>7</v>
       </c>
       <c r="B69" s="116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C69" s="116" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E69" s="118" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="89" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -41517,13 +41522,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C70" s="132" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E70" s="118" t="s">
         <v>7</v>
@@ -41556,13 +41561,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="116" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C71" s="132" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E71" s="118" t="s">
         <v>7</v>
@@ -41595,13 +41600,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="116" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C72" s="132" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E72" s="118" t="s">
         <v>7</v>
@@ -41634,13 +41639,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="116" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C73" s="132" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E73" s="118" t="s">
         <v>7</v>
@@ -41673,13 +41678,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="116" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C74" s="116" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E74" s="118" t="s">
         <v>7</v>
@@ -41712,13 +41717,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C75" s="116" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E75" s="118" t="s">
         <v>7</v>
@@ -41751,13 +41756,13 @@
         <v>7</v>
       </c>
       <c r="B76" s="116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C76" s="116" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E76" s="118" t="s">
         <v>7</v>
@@ -41790,13 +41795,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="116" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C77" s="116" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E77" s="118" t="s">
         <v>7</v>
@@ -41829,13 +41834,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="116" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C78" s="116" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E78" s="118" t="s">
         <v>7</v>
@@ -41868,13 +41873,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="124" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C79" s="124" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D79" s="125" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E79" s="126" t="s">
         <v>7</v>
@@ -41907,13 +41912,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C80" s="134" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D80" s="135" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E80" s="136" t="s">
         <v>9</v>
@@ -41946,13 +41951,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="134" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C81" s="134" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D81" s="135" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E81" s="136" t="s">
         <v>9</v>
@@ -41985,13 +41990,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="134" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C82" s="134" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D82" s="135" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E82" s="136" t="s">
         <v>9</v>
@@ -42024,13 +42029,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="134" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C83" s="134" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D83" s="135" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E83" s="136" t="s">
         <v>9</v>
@@ -42063,13 +42068,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C84" s="134" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D84" s="135" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E84" s="136" t="s">
         <v>9</v>
@@ -42102,13 +42107,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C85" s="134" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D85" s="135" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E85" s="136" t="s">
         <v>9</v>
@@ -42141,13 +42146,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="134" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C86" s="134" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D86" s="135" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E86" s="136" t="s">
         <v>9</v>
@@ -42180,13 +42185,13 @@
         <v>9</v>
       </c>
       <c r="B87" s="134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C87" s="134" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D87" s="135" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E87" s="136" t="s">
         <v>9</v>
@@ -42219,13 +42224,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C88" s="134" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D88" s="137" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E88" s="136" t="s">
         <v>9</v>
@@ -42258,13 +42263,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C89" s="134" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D89" s="135" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E89" s="136" t="s">
         <v>9</v>
@@ -42297,20 +42302,20 @@
         <v>9</v>
       </c>
       <c r="B90" s="134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C90" s="134" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D90" s="135" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E90" s="136" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="89" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -42338,20 +42343,20 @@
         <v>9</v>
       </c>
       <c r="B91" s="134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C91" s="134" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D91" s="135" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E91" s="136" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="89" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -42379,13 +42384,13 @@
         <v>9</v>
       </c>
       <c r="B92" s="139" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C92" s="139" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D92" s="140" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E92" s="141" t="s">
         <v>9</v>
@@ -42418,13 +42423,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C93" s="139" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D93" s="140" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E93" s="141" t="s">
         <v>9</v>
@@ -42457,13 +42462,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="139" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C94" s="139" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D94" s="140" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E94" s="141" t="s">
         <v>9</v>
@@ -42496,13 +42501,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C95" s="139" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D95" s="140" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E95" s="141" t="s">
         <v>9</v>
@@ -42535,13 +42540,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="139" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C96" s="139" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D96" s="140" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E96" s="141" t="s">
         <v>9</v>
@@ -42574,13 +42579,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="139" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C97" s="139" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D97" s="140" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E97" s="141" t="s">
         <v>9</v>
@@ -42613,13 +42618,13 @@
         <v>9</v>
       </c>
       <c r="B98" s="139" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C98" s="139" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D98" s="140" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E98" s="141" t="s">
         <v>9</v>
@@ -42652,13 +42657,13 @@
         <v>9</v>
       </c>
       <c r="B99" s="139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C99" s="139" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D99" s="140" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E99" s="141" t="s">
         <v>9</v>
@@ -42691,13 +42696,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="139" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C100" s="139" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D100" s="140" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E100" s="141" t="s">
         <v>9</v>
@@ -42730,13 +42735,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="139" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C101" s="139" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D101" s="140" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E101" s="141" t="s">
         <v>9</v>
@@ -42769,13 +42774,13 @@
         <v>9</v>
       </c>
       <c r="B102" s="139" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C102" s="139" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D102" s="140" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E102" s="141" t="s">
         <v>9</v>
@@ -42808,13 +42813,13 @@
         <v>9</v>
       </c>
       <c r="B103" s="143" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C103" s="143" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D103" s="144" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E103" s="145" t="s">
         <v>9</v>
@@ -42847,13 +42852,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="147" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C104" s="147" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D104" s="148" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E104" s="149" t="s">
         <v>11</v>
@@ -42886,13 +42891,13 @@
         <v>11</v>
       </c>
       <c r="B105" s="78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C105" s="78" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D105" s="151" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E105" s="81" t="s">
         <v>11</v>
@@ -42925,13 +42930,13 @@
         <v>11</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C106" s="78" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D106" s="151" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E106" s="81" t="s">
         <v>11</v>
@@ -42964,13 +42969,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C107" s="78" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D107" s="151" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E107" s="81" t="s">
         <v>11</v>
@@ -43003,13 +43008,13 @@
         <v>11</v>
       </c>
       <c r="B108" s="78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C108" s="78" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D108" s="151" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E108" s="81" t="s">
         <v>11</v>
@@ -43042,13 +43047,13 @@
         <v>11</v>
       </c>
       <c r="B109" s="78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C109" s="78" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D109" s="151" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E109" s="81" t="s">
         <v>11</v>
@@ -43081,13 +43086,13 @@
         <v>11</v>
       </c>
       <c r="B110" s="78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C110" s="78" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D110" s="151" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E110" s="81" t="s">
         <v>11</v>
@@ -43120,13 +43125,13 @@
         <v>11</v>
       </c>
       <c r="B111" s="78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C111" s="78" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D111" s="151" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E111" s="81" t="s">
         <v>11</v>
@@ -43159,13 +43164,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C112" s="78" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D112" s="151" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E112" s="81" t="s">
         <v>11</v>
@@ -43198,13 +43203,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C113" s="78" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D113" s="151" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E113" s="81" t="s">
         <v>11</v>
@@ -43237,13 +43242,13 @@
         <v>11</v>
       </c>
       <c r="B114" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C114" s="78" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D114" s="151" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E114" s="81" t="s">
         <v>11</v>
@@ -43276,13 +43281,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C115" s="78" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D115" s="151" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E115" s="81" t="s">
         <v>11</v>
@@ -43315,13 +43320,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="78" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C116" s="78" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D116" s="151" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E116" s="81" t="s">
         <v>11</v>
@@ -43354,13 +43359,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C117" s="78" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D117" s="151" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E117" s="81" t="s">
         <v>11</v>
@@ -43393,13 +43398,13 @@
         <v>11</v>
       </c>
       <c r="B118" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C118" s="78" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D118" s="151" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E118" s="81" t="s">
         <v>11</v>
@@ -43432,13 +43437,13 @@
         <v>11</v>
       </c>
       <c r="B119" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C119" s="78" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D119" s="151" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E119" s="81" t="s">
         <v>11</v>
@@ -43471,13 +43476,13 @@
         <v>11</v>
       </c>
       <c r="B120" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C120" s="78" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D120" s="151" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E120" s="81" t="s">
         <v>11</v>
@@ -43510,13 +43515,13 @@
         <v>11</v>
       </c>
       <c r="B121" s="78" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C121" s="78" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D121" s="151" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E121" s="81" t="s">
         <v>11</v>
@@ -43549,13 +43554,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="78" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C122" s="78" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D122" s="151" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E122" s="81" t="s">
         <v>11</v>
@@ -43588,13 +43593,13 @@
         <v>11</v>
       </c>
       <c r="B123" s="78" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C123" s="78" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D123" s="151" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E123" s="81" t="s">
         <v>11</v>
@@ -43627,13 +43632,13 @@
         <v>11</v>
       </c>
       <c r="B124" s="78" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C124" s="78" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D124" s="151" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E124" s="81" t="s">
         <v>11</v>
@@ -43666,13 +43671,13 @@
         <v>11</v>
       </c>
       <c r="B125" s="78" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C125" s="78" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D125" s="151" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E125" s="81" t="s">
         <v>11</v>
@@ -43705,13 +43710,13 @@
         <v>11</v>
       </c>
       <c r="B126" s="78" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C126" s="78" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D126" s="151" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E126" s="81" t="s">
         <v>11</v>
@@ -43744,13 +43749,13 @@
         <v>11</v>
       </c>
       <c r="B127" s="78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C127" s="78" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D127" s="151" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E127" s="81" t="s">
         <v>11</v>
@@ -43783,13 +43788,13 @@
         <v>11</v>
       </c>
       <c r="B128" s="78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C128" s="78" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D128" s="151" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E128" s="81" t="s">
         <v>11</v>
@@ -43822,13 +43827,13 @@
         <v>11</v>
       </c>
       <c r="B129" s="78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C129" s="78" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D129" s="151" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E129" s="81" t="s">
         <v>11</v>
@@ -43861,13 +43866,13 @@
         <v>11</v>
       </c>
       <c r="B130" s="78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C130" s="78" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D130" s="151" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E130" s="81" t="s">
         <v>11</v>
@@ -43900,13 +43905,13 @@
         <v>11</v>
       </c>
       <c r="B131" s="78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C131" s="78" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D131" s="151" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E131" s="81" t="s">
         <v>11</v>
@@ -43939,13 +43944,13 @@
         <v>11</v>
       </c>
       <c r="B132" s="78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C132" s="78" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D132" s="151" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E132" s="81" t="s">
         <v>11</v>
@@ -43978,13 +43983,13 @@
         <v>11</v>
       </c>
       <c r="B133" s="153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C133" s="153" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D133" s="154" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E133" s="155" t="s">
         <v>11</v>
@@ -68952,42 +68957,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="156" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B5" s="157" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -118,7 +118,7 @@
     <t>REVISÃO</t>
   </si>
   <si>
-    <t>O Manual de Fuga vai ajudá-la a criar um plano de saída do ambiente doméstico. Por isso, dedique um tempo, e responda ao máximo de perguntas, para podermos personalizar uma lista de ações essenciais para o seu planejamento. Ele será mostrada somente depois que você concluir a interação.</t>
+    <t>O Manual de Fuga vai ajudá-la a criar um plano de saída do ambiente doméstico. Por isso, dedique um tempo, e responda ao máximo de perguntas, para podermos personalizar uma lista de ações essenciais para o seu planejamento. Ela será mostrada somente depois que você concluir a interação.</t>
   </si>
   <si>
     <t>P0a</t>
@@ -203,7 +203,7 @@
     <t>P1intro</t>
   </si>
   <si>
-    <t xml:space="preserve">Este bloco é essencial para pôr o seu plano de fuga em prática. As perguntas a seguir vão te ajudar a pensar em um local para se proteger e nas estratégias de deslocamento, priorizando sua proteção e bem-estar. 
+    <t xml:space="preserve">Este bloco é essencial para por o seu plano de fuga em prática. As perguntas a seguir vão te ajudar a pensar em um local para se proteger e nas estratégias de deslocamento, priorizando sua proteção e bem-estar. 
 </t>
   </si>
   <si>
@@ -1377,7 +1377,7 @@
     <t>T23</t>
   </si>
   <si>
-    <t xml:space="preserve">Certifique horários do seu agressor e programe sua fuga no momento em que você tiver maior margem de tempo, para que possa se distanciar o máximo possível do seu endereço sem ser notada. </t>
+    <t>Certifique-se dos horários em que seu agressor estará fora de casa e programe sua fuga com larga margem de tempo até seu retorno.</t>
   </si>
   <si>
     <t>R20, R22, R84, R85</t>
@@ -1826,7 +1826,7 @@
     <t>T85</t>
   </si>
   <si>
-    <t>É importante ter uma conta, de preferência banco digital onde é mais fácil de abrir a conta, que o agressor desconheça para que você possa ter uma reserva para situações de emergência. Não se esqueça de optar por não receber correspondências em casa.</t>
+    <t>É importante ter uma conta que o agressor desconheça para manter uma reserva de emergência. A abertura de conta é mais fácil em bancos digitais. Opte por não receber correspondências em casa.</t>
   </si>
   <si>
     <t>T86</t>
@@ -39701,7 +39701,7 @@
       <c r="C24" s="85" t="s">
         <v>416</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="91" t="s">
         <v>417</v>
       </c>
       <c r="E24" s="87" t="s">

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="666">
   <si>
     <t>ID Bloco</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>P10intro</t>
+  </si>
+  <si>
+    <t>Neste bloco, vamos tratar sobre crianças, adolescentes e outras pessoas que dependam de seus cuidados. O foco é garantir que essas pessoas estejam protegidas e possam lhe ajudar quando possível. Crianças e adolescentes não devem se sentir responsáveis por garantir sua proteção. As perguntas e orientações desse bloco são importantes para criar um ambiente seguro e garantir direitos.</t>
   </si>
   <si>
     <t>P10</t>
@@ -4508,7 +4511,7 @@
         <v>97</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>52</v>
@@ -4543,16 +4546,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -4581,16 +4584,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -4619,16 +4622,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -4657,19 +4660,19 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -4697,16 +4700,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -4735,16 +4738,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -4773,16 +4776,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -4811,16 +4814,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -4849,16 +4852,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -4887,10 +4890,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>52</v>
@@ -4925,16 +4928,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -4963,16 +4966,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -5001,10 +5004,10 @@
         <v>11</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>52</v>
@@ -5039,16 +5042,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -5077,16 +5080,16 @@
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -5115,16 +5118,16 @@
         <v>11</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -5153,16 +5156,16 @@
         <v>11</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -5191,16 +5194,16 @@
         <v>11</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -5229,16 +5232,16 @@
         <v>11</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -5267,16 +5270,16 @@
         <v>11</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -5333,10 +5336,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>15</v>
@@ -10193,16 +10196,16 @@
   <sheetData>
     <row r="1" ht="42.0" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>25</v>
@@ -10237,10 +10240,10 @@
         <v>53</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="13"/>
@@ -10273,10 +10276,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -10308,10 +10311,10 @@
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -10343,10 +10346,10 @@
         <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -10378,10 +10381,10 @@
         <v>65</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -10413,10 +10416,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -10448,10 +10451,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -10483,10 +10486,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -10518,10 +10521,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="13"/>
@@ -10554,10 +10557,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="13"/>
@@ -10590,10 +10593,10 @@
         <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -10622,13 +10625,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="13"/>
@@ -10658,13 +10661,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -10693,13 +10696,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -10728,13 +10731,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -10763,13 +10766,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -10801,10 +10804,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -10836,10 +10839,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -10871,7 +10874,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="32"/>
@@ -10905,7 +10908,7 @@
         <v>80</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="32"/>
@@ -10939,10 +10942,10 @@
         <v>87</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -10974,10 +10977,10 @@
         <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="13"/>
@@ -11010,10 +11013,10 @@
         <v>87</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="13"/>
@@ -11046,10 +11049,10 @@
         <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -11081,10 +11084,10 @@
         <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -11116,10 +11119,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -11151,10 +11154,10 @@
         <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -11183,13 +11186,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -11218,13 +11221,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -11253,13 +11256,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="6"/>
@@ -11289,13 +11292,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -11324,13 +11327,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="6"/>
@@ -11360,13 +11363,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="6"/>
@@ -11396,13 +11399,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -11431,13 +11434,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="6"/>
@@ -11467,13 +11470,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="6"/>
@@ -11503,16 +11506,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -11541,13 +11544,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -11576,13 +11579,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="6"/>
@@ -11612,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -11647,13 +11650,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -11682,13 +11685,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -11717,13 +11720,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -11752,13 +11755,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="6"/>
@@ -11788,13 +11791,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -11823,13 +11826,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -11858,13 +11861,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="6"/>
@@ -11894,13 +11897,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -11929,13 +11932,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -11964,16 +11967,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -12002,13 +12005,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="6"/>
@@ -12038,13 +12041,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -12073,13 +12076,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -12108,13 +12111,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -12143,13 +12146,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="6"/>
@@ -12179,13 +12182,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -12214,13 +12217,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="6"/>
@@ -12250,13 +12253,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -12285,13 +12288,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E60" s="32"/>
       <c r="F60" s="6"/>
@@ -12321,13 +12324,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -12356,13 +12359,13 @@
         <v>9</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E62" s="32"/>
       <c r="F62" s="6"/>
@@ -12392,13 +12395,13 @@
         <v>9</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="6"/>
@@ -12428,13 +12431,13 @@
         <v>9</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -12463,13 +12466,13 @@
         <v>9</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E65" s="32"/>
       <c r="F65" s="6"/>
@@ -12499,13 +12502,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="6"/>
@@ -12535,13 +12538,13 @@
         <v>9</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -12570,13 +12573,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="6"/>
@@ -12606,13 +12609,13 @@
         <v>9</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="6"/>
@@ -12642,13 +12645,13 @@
         <v>9</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="6"/>
@@ -12678,13 +12681,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="6"/>
@@ -12714,13 +12717,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="6"/>
@@ -12750,13 +12753,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -12785,13 +12788,13 @@
         <v>9</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -12820,13 +12823,13 @@
         <v>9</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -12855,13 +12858,13 @@
         <v>11</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E76" s="32"/>
       <c r="F76" s="6"/>
@@ -12891,13 +12894,13 @@
         <v>11</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -12926,13 +12929,13 @@
         <v>11</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="6"/>
@@ -12962,13 +12965,13 @@
         <v>11</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="6"/>
@@ -12998,13 +13001,13 @@
         <v>11</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="6"/>
@@ -13034,13 +13037,13 @@
         <v>11</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="6"/>
@@ -13070,13 +13073,13 @@
         <v>11</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -13105,13 +13108,13 @@
         <v>11</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -13140,13 +13143,13 @@
         <v>11</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E84" s="32"/>
       <c r="F84" s="6"/>
@@ -13176,13 +13179,13 @@
         <v>11</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -13211,13 +13214,13 @@
         <v>11</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D86" s="37" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -13246,13 +13249,13 @@
         <v>11</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="6"/>
@@ -13282,13 +13285,13 @@
         <v>11</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="6"/>
@@ -13318,13 +13321,13 @@
         <v>11</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="6"/>
@@ -13354,13 +13357,13 @@
         <v>11</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="6"/>
@@ -13390,13 +13393,13 @@
         <v>11</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="6"/>
@@ -13426,13 +13429,13 @@
         <v>11</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="6"/>
@@ -13462,13 +13465,13 @@
         <v>11</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -13497,13 +13500,13 @@
         <v>11</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="6"/>
@@ -13533,13 +13536,13 @@
         <v>11</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="6"/>
@@ -13569,13 +13572,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -13604,13 +13607,13 @@
         <v>11</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -38787,19 +38790,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>25</v>
@@ -38830,20 +38833,20 @@
         <v>3</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="64" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -38871,20 +38874,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E3" s="67" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="68"/>
       <c r="G3" s="64" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -38912,20 +38915,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="72"/>
       <c r="G4" s="64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -38953,13 +38956,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E5" s="77" t="s">
         <v>5</v>
@@ -38992,13 +38995,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E6" s="82" t="s">
         <v>11</v>
@@ -39031,13 +39034,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E7" s="87" t="s">
         <v>5</v>
@@ -39070,13 +39073,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>11</v>
@@ -39109,13 +39112,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>11</v>
@@ -39148,19 +39151,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E10" s="87" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="86"/>
@@ -39189,13 +39192,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E11" s="87" t="s">
         <v>5</v>
@@ -39228,13 +39231,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" s="85" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E12" s="87" t="s">
         <v>5</v>
@@ -39267,13 +39270,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E13" s="87" t="s">
         <v>5</v>
@@ -39306,13 +39309,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E14" s="87" t="s">
         <v>5</v>
@@ -39345,13 +39348,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E15" s="87" t="s">
         <v>5</v>
@@ -39384,13 +39387,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E16" s="87" t="s">
         <v>5</v>
@@ -39423,13 +39426,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E17" s="87" t="s">
         <v>5</v>
@@ -39462,13 +39465,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D18" s="92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E18" s="87" t="s">
         <v>5</v>
@@ -39501,13 +39504,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E19" s="87" t="s">
         <v>5</v>
@@ -39540,13 +39543,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D20" s="86" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E20" s="87" t="s">
         <v>5</v>
@@ -39579,13 +39582,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D21" s="86" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>5</v>
@@ -39618,13 +39621,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D22" s="86" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E22" s="87" t="s">
         <v>5</v>
@@ -39657,13 +39660,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E23" s="87" t="s">
         <v>5</v>
@@ -39696,13 +39699,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E24" s="87" t="s">
         <v>5</v>
@@ -39735,13 +39738,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E25" s="87" t="s">
         <v>5</v>
@@ -39774,13 +39777,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D26" s="86" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E26" s="87" t="s">
         <v>5</v>
@@ -39813,13 +39816,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E27" s="87" t="s">
         <v>5</v>
@@ -39852,13 +39855,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E28" s="103" t="s">
         <v>13</v>
@@ -39891,13 +39894,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D29" s="107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E29" s="108" t="s">
         <v>13</v>
@@ -39930,13 +39933,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E30" s="108" t="s">
         <v>13</v>
@@ -39969,13 +39972,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D31" s="107" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E31" s="108" t="s">
         <v>13</v>
@@ -40008,13 +40011,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D32" s="107" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E32" s="108" t="s">
         <v>13</v>
@@ -40047,13 +40050,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D33" s="107" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E33" s="108" t="s">
         <v>13</v>
@@ -40086,13 +40089,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C34" s="106" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D34" s="107" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E34" s="108" t="s">
         <v>13</v>
@@ -40125,13 +40128,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D35" s="107" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E35" s="108" t="s">
         <v>13</v>
@@ -40164,13 +40167,13 @@
         <v>13</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C36" s="106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D36" s="109" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E36" s="108" t="s">
         <v>13</v>
@@ -40203,13 +40206,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C37" s="106" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D37" s="107" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E37" s="108" t="s">
         <v>13</v>
@@ -40242,13 +40245,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C38" s="106" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D38" s="107" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E38" s="108" t="s">
         <v>13</v>
@@ -40281,13 +40284,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" s="106" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D39" s="107" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E39" s="108" t="s">
         <v>13</v>
@@ -40320,13 +40323,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" s="106" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D40" s="107" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E40" s="108" t="s">
         <v>13</v>
@@ -40359,13 +40362,13 @@
         <v>13</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C41" s="106" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D41" s="107" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E41" s="108" t="s">
         <v>13</v>
@@ -40398,13 +40401,13 @@
         <v>13</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C42" s="106" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D42" s="107" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E42" s="108" t="s">
         <v>13</v>
@@ -40437,13 +40440,13 @@
         <v>13</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C43" s="106" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D43" s="107" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E43" s="108" t="s">
         <v>13</v>
@@ -40476,13 +40479,13 @@
         <v>13</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C44" s="106" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D44" s="107" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E44" s="108" t="s">
         <v>13</v>
@@ -40515,13 +40518,13 @@
         <v>13</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C45" s="106" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D45" s="107" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E45" s="108" t="s">
         <v>13</v>
@@ -40554,13 +40557,13 @@
         <v>13</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C46" s="106" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D46" s="107" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E46" s="108" t="s">
         <v>13</v>
@@ -40593,13 +40596,13 @@
         <v>13</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C47" s="106" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D47" s="107" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E47" s="108" t="s">
         <v>13</v>
@@ -40632,13 +40635,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C48" s="113" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D48" s="114" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E48" s="115" t="s">
         <v>13</v>
@@ -40671,13 +40674,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C49" s="118" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E49" s="119" t="s">
         <v>7</v>
@@ -40710,13 +40713,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C50" s="118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E50" s="119" t="s">
         <v>7</v>
@@ -40749,13 +40752,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C51" s="117" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E51" s="119" t="s">
         <v>7</v>
@@ -40788,13 +40791,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C52" s="117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E52" s="119" t="s">
         <v>7</v>
@@ -40827,13 +40830,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C53" s="117" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E53" s="119" t="s">
         <v>7</v>
@@ -40866,13 +40869,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C54" s="117" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E54" s="119" t="s">
         <v>7</v>
@@ -40905,13 +40908,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E55" s="119" t="s">
         <v>7</v>
@@ -40944,13 +40947,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C56" s="117" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E56" s="119" t="s">
         <v>7</v>
@@ -40983,13 +40986,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="121" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C57" s="121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D57" s="122" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E57" s="123" t="s">
         <v>11</v>
@@ -41022,13 +41025,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="121" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C58" s="121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D58" s="122" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E58" s="123" t="s">
         <v>11</v>
@@ -41061,13 +41064,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="121" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C59" s="121" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D59" s="122" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E59" s="123" t="s">
         <v>11</v>
@@ -41100,13 +41103,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C60" s="117" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E60" s="119" t="s">
         <v>7</v>
@@ -41139,13 +41142,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C61" s="117" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E61" s="119" t="s">
         <v>7</v>
@@ -41178,13 +41181,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="125" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C62" s="125" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D62" s="126" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E62" s="127" t="s">
         <v>7</v>
@@ -41217,13 +41220,13 @@
         <v>7</v>
       </c>
       <c r="B63" s="129" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C63" s="129" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D63" s="130" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E63" s="131" t="s">
         <v>7</v>
@@ -41256,13 +41259,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C64" s="117" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E64" s="119" t="s">
         <v>7</v>
@@ -41295,13 +41298,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C65" s="117" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E65" s="119" t="s">
         <v>7</v>
@@ -41334,13 +41337,13 @@
         <v>7</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C66" s="117" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E66" s="119" t="s">
         <v>7</v>
@@ -41373,20 +41376,20 @@
         <v>7</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C67" s="117" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D67" s="132" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E67" s="119" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="90" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -41414,20 +41417,20 @@
         <v>7</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C68" s="133" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E68" s="119" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="90" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -41455,20 +41458,20 @@
         <v>7</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C69" s="117" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E69" s="119" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="90" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -41496,13 +41499,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C70" s="133" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E70" s="119" t="s">
         <v>7</v>
@@ -41535,13 +41538,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="117" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C71" s="133" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E71" s="119" t="s">
         <v>7</v>
@@ -41574,13 +41577,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="117" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C72" s="133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E72" s="119" t="s">
         <v>7</v>
@@ -41613,13 +41616,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="117" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C73" s="133" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E73" s="119" t="s">
         <v>7</v>
@@ -41652,13 +41655,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="117" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C74" s="117" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E74" s="119" t="s">
         <v>7</v>
@@ -41691,13 +41694,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C75" s="117" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E75" s="119" t="s">
         <v>7</v>
@@ -41730,13 +41733,13 @@
         <v>7</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C76" s="117" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E76" s="119" t="s">
         <v>7</v>
@@ -41769,13 +41772,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C77" s="117" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E77" s="119" t="s">
         <v>7</v>
@@ -41808,13 +41811,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C78" s="117" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E78" s="119" t="s">
         <v>7</v>
@@ -41847,13 +41850,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="125" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C79" s="125" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D79" s="126" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E79" s="127" t="s">
         <v>7</v>
@@ -41886,13 +41889,13 @@
         <v>9</v>
       </c>
       <c r="B80" s="135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C80" s="135" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D80" s="136" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E80" s="137" t="s">
         <v>9</v>
@@ -41925,13 +41928,13 @@
         <v>9</v>
       </c>
       <c r="B81" s="135" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C81" s="135" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D81" s="136" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E81" s="137" t="s">
         <v>9</v>
@@ -41964,13 +41967,13 @@
         <v>9</v>
       </c>
       <c r="B82" s="135" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C82" s="135" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D82" s="136" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E82" s="137" t="s">
         <v>9</v>
@@ -42003,13 +42006,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="135" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C83" s="135" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D83" s="136" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E83" s="137" t="s">
         <v>9</v>
@@ -42042,13 +42045,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C84" s="135" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D84" s="136" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E84" s="137" t="s">
         <v>9</v>
@@ -42081,13 +42084,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C85" s="135" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D85" s="136" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E85" s="137" t="s">
         <v>9</v>
@@ -42120,13 +42123,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="135" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C86" s="135" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D86" s="136" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E86" s="137" t="s">
         <v>9</v>
@@ -42159,13 +42162,13 @@
         <v>9</v>
       </c>
       <c r="B87" s="135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C87" s="135" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D87" s="136" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E87" s="137" t="s">
         <v>9</v>
@@ -42198,13 +42201,13 @@
         <v>9</v>
       </c>
       <c r="B88" s="135" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C88" s="135" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D88" s="138" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E88" s="137" t="s">
         <v>9</v>
@@ -42237,13 +42240,13 @@
         <v>9</v>
       </c>
       <c r="B89" s="135" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C89" s="135" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D89" s="136" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E89" s="137" t="s">
         <v>9</v>
@@ -42276,20 +42279,20 @@
         <v>9</v>
       </c>
       <c r="B90" s="135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C90" s="135" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D90" s="136" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E90" s="137" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="90" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
@@ -42317,20 +42320,20 @@
         <v>9</v>
       </c>
       <c r="B91" s="135" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C91" s="135" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D91" s="136" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E91" s="137" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="90" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
@@ -42358,13 +42361,13 @@
         <v>9</v>
       </c>
       <c r="B92" s="140" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C92" s="140" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D92" s="141" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E92" s="142" t="s">
         <v>9</v>
@@ -42397,13 +42400,13 @@
         <v>9</v>
       </c>
       <c r="B93" s="140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C93" s="140" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D93" s="141" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E93" s="142" t="s">
         <v>9</v>
@@ -42436,13 +42439,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="140" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C94" s="140" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D94" s="141" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E94" s="142" t="s">
         <v>9</v>
@@ -42475,13 +42478,13 @@
         <v>9</v>
       </c>
       <c r="B95" s="140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C95" s="140" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D95" s="141" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E95" s="142" t="s">
         <v>9</v>
@@ -42514,13 +42517,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="140" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C96" s="140" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D96" s="141" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E96" s="142" t="s">
         <v>9</v>
@@ -42553,13 +42556,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="140" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C97" s="140" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D97" s="141" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E97" s="142" t="s">
         <v>9</v>
@@ -42592,13 +42595,13 @@
         <v>9</v>
       </c>
       <c r="B98" s="140" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C98" s="140" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D98" s="141" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E98" s="142" t="s">
         <v>9</v>
@@ -42631,13 +42634,13 @@
         <v>9</v>
       </c>
       <c r="B99" s="140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C99" s="140" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D99" s="141" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E99" s="142" t="s">
         <v>9</v>
@@ -42670,13 +42673,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="140" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C100" s="140" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D100" s="141" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E100" s="142" t="s">
         <v>9</v>
@@ -42709,13 +42712,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="140" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C101" s="140" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D101" s="141" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E101" s="142" t="s">
         <v>9</v>
@@ -42748,13 +42751,13 @@
         <v>9</v>
       </c>
       <c r="B102" s="140" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C102" s="140" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D102" s="141" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E102" s="142" t="s">
         <v>9</v>
@@ -42787,13 +42790,13 @@
         <v>9</v>
       </c>
       <c r="B103" s="144" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C103" s="144" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D103" s="145" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E103" s="146" t="s">
         <v>9</v>
@@ -42826,13 +42829,13 @@
         <v>11</v>
       </c>
       <c r="B104" s="148" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C104" s="148" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D104" s="149" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E104" s="150" t="s">
         <v>11</v>
@@ -42865,13 +42868,13 @@
         <v>11</v>
       </c>
       <c r="B105" s="79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C105" s="79" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D105" s="152" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E105" s="82" t="s">
         <v>11</v>
@@ -42904,13 +42907,13 @@
         <v>11</v>
       </c>
       <c r="B106" s="79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C106" s="79" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D106" s="152" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E106" s="82" t="s">
         <v>11</v>
@@ -42943,13 +42946,13 @@
         <v>11</v>
       </c>
       <c r="B107" s="79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C107" s="79" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D107" s="152" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E107" s="82" t="s">
         <v>11</v>
@@ -42982,13 +42985,13 @@
         <v>11</v>
       </c>
       <c r="B108" s="79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C108" s="79" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D108" s="152" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E108" s="82" t="s">
         <v>11</v>
@@ -43021,13 +43024,13 @@
         <v>11</v>
       </c>
       <c r="B109" s="79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C109" s="79" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D109" s="152" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E109" s="82" t="s">
         <v>11</v>
@@ -43060,13 +43063,13 @@
         <v>11</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C110" s="79" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D110" s="152" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E110" s="82" t="s">
         <v>11</v>
@@ -43099,13 +43102,13 @@
         <v>11</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C111" s="79" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D111" s="152" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E111" s="82" t="s">
         <v>11</v>
@@ -43138,13 +43141,13 @@
         <v>11</v>
       </c>
       <c r="B112" s="79" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C112" s="79" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D112" s="152" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E112" s="82" t="s">
         <v>11</v>
@@ -43177,13 +43180,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C113" s="79" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D113" s="152" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E113" s="82" t="s">
         <v>11</v>
@@ -43216,13 +43219,13 @@
         <v>11</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C114" s="79" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D114" s="152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E114" s="82" t="s">
         <v>11</v>
@@ -43255,13 +43258,13 @@
         <v>11</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C115" s="79" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D115" s="152" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E115" s="82" t="s">
         <v>11</v>
@@ -43294,13 +43297,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="79" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C116" s="79" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D116" s="152" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E116" s="82" t="s">
         <v>11</v>
@@ -43333,13 +43336,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C117" s="79" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D117" s="152" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E117" s="82" t="s">
         <v>11</v>
@@ -43372,13 +43375,13 @@
         <v>11</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C118" s="79" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D118" s="152" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E118" s="82" t="s">
         <v>11</v>
@@ -43411,13 +43414,13 @@
         <v>11</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C119" s="79" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D119" s="152" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E119" s="82" t="s">
         <v>11</v>
@@ -43450,13 +43453,13 @@
         <v>11</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C120" s="79" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D120" s="152" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E120" s="82" t="s">
         <v>11</v>
@@ -43489,13 +43492,13 @@
         <v>11</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C121" s="79" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D121" s="152" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E121" s="82" t="s">
         <v>11</v>
@@ -43528,13 +43531,13 @@
         <v>11</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C122" s="79" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D122" s="152" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E122" s="82" t="s">
         <v>11</v>
@@ -43567,13 +43570,13 @@
         <v>11</v>
       </c>
       <c r="B123" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C123" s="79" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D123" s="152" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E123" s="82" t="s">
         <v>11</v>
@@ -43606,13 +43609,13 @@
         <v>11</v>
       </c>
       <c r="B124" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C124" s="79" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D124" s="152" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E124" s="82" t="s">
         <v>11</v>
@@ -43645,13 +43648,13 @@
         <v>11</v>
       </c>
       <c r="B125" s="79" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C125" s="79" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D125" s="152" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E125" s="82" t="s">
         <v>11</v>
@@ -43684,13 +43687,13 @@
         <v>11</v>
       </c>
       <c r="B126" s="79" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C126" s="79" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D126" s="152" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E126" s="82" t="s">
         <v>11</v>
@@ -43723,13 +43726,13 @@
         <v>11</v>
       </c>
       <c r="B127" s="79" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C127" s="79" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D127" s="152" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E127" s="82" t="s">
         <v>11</v>
@@ -43762,13 +43765,13 @@
         <v>11</v>
       </c>
       <c r="B128" s="79" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C128" s="79" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D128" s="152" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E128" s="82" t="s">
         <v>11</v>
@@ -43801,13 +43804,13 @@
         <v>11</v>
       </c>
       <c r="B129" s="79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C129" s="79" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D129" s="152" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E129" s="82" t="s">
         <v>11</v>
@@ -43840,13 +43843,13 @@
         <v>11</v>
       </c>
       <c r="B130" s="79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C130" s="79" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D130" s="152" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E130" s="82" t="s">
         <v>11</v>
@@ -43879,13 +43882,13 @@
         <v>11</v>
       </c>
       <c r="B131" s="79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C131" s="79" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D131" s="152" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E131" s="82" t="s">
         <v>11</v>
@@ -43918,13 +43921,13 @@
         <v>11</v>
       </c>
       <c r="B132" s="79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C132" s="79" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D132" s="152" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E132" s="82" t="s">
         <v>11</v>
@@ -43957,13 +43960,13 @@
         <v>11</v>
       </c>
       <c r="B133" s="154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C133" s="154" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D133" s="155" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E133" s="156" t="s">
         <v>11</v>
@@ -68931,42 +68934,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="157" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B5" s="158" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -334,7 +334,7 @@
     <t>"Transporte público": R21, P9gb
 "Moto/ Carro próprio": R22, P9gb
 "Carona": R23, P9gb
-"Bicicleta/a pé": R22, R24, P9gb
+"Bicicleta/a pé": R24, P9gb
 "Táxi ou carro por aplicativo":  R25, P9gb
 "Não sei": R26, R27, P9gb</t>
   </si>

--- a/lost-and-found/parser-quiz/input.xlsx
+++ b/lost-and-found/parser-quiz/input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="677">
   <si>
     <t>ID Bloco</t>
   </si>
@@ -405,8 +405,8 @@
     <t>Você pretende incluir essa criança e/ou adolescente em seu plano de fuga?</t>
   </si>
   <si>
-    <t>S: R38, P14
-N: R39, R40, P14
+    <t>S: R38, P14, T3
+N: R39, R40, P14, T4
 T: R41, P14, T2</t>
   </si>
   <si>
@@ -477,8 +477,8 @@
   </si>
   <si>
     <t>"Trabalho e tenho liberdade com o meu dinheiro.": R60, P20
-“Não trabalho, mas recebo benefício/ pensão.”: R61, P20
-"Dependo financeiramente/ ele controla meu dinheiro.": R62, P20</t>
+“Não trabalho, mas recebo benefício/ pensão.”: R61, P20, T5
+"Dependo financeiramente/ ele controla meu dinheiro.": R62, P20, T6</t>
   </si>
   <si>
     <t>P20</t>
@@ -503,7 +503,7 @@
     <t>P21</t>
   </si>
   <si>
-    <t>Você mora com  o agressor?</t>
+    <t>Você mora com o agressor?</t>
   </si>
   <si>
     <t>S: R77, R78, R79, P22
@@ -558,7 +558,7 @@
     <t xml:space="preserve">Você possui alguma deficiência física e/ou intelectual?  </t>
   </si>
   <si>
-    <t>S: R94, R95, P27
+    <t>S: R94, R95, P27, T7
 N: P27</t>
   </si>
   <si>
@@ -569,7 +569,7 @@
   </si>
   <si>
     <t>S: R96, R97, R98, PQ
-N: R98, PQ</t>
+N: R98, PQ, T8</t>
   </si>
   <si>
     <t>P999</t>
@@ -2165,10 +2165,43 @@
     <t>DESCRICAO</t>
   </si>
   <si>
-    <t>Quis saber havia no estado/cidade serviços de acolhimento</t>
+    <t>Quis saber se havia no estado/cidade serviços de acolhimento</t>
+  </si>
+  <si>
+    <t>R5, R6, R7</t>
   </si>
   <si>
     <t>Talvez pretende incluir uma criança e/ou adolescente no plano de fuga</t>
+  </si>
+  <si>
+    <t>Sim, pretende incluir uma criança e/ou adolescente no plano de fuga</t>
+  </si>
+  <si>
+    <t>Não pretende incluir uma criança e/ou adolescente no plano de fuga</t>
+  </si>
+  <si>
+    <t>R39, R40</t>
+  </si>
+  <si>
+    <t>Sim, possuí renda (trabalho ou benefício)</t>
+  </si>
+  <si>
+    <t>R60, R61</t>
+  </si>
+  <si>
+    <t>Depende financeiramente do agressor/tem seu dinheiro controlado por ele</t>
+  </si>
+  <si>
+    <t>Tem deficiência física ou intelectual</t>
+  </si>
+  <si>
+    <t>R94, R95</t>
+  </si>
+  <si>
+    <t>Está grávida</t>
+  </si>
+  <si>
+    <t>R96, R97, R98</t>
   </si>
   <si>
     <t>SIM_LIMPA_MF</t>
@@ -2187,7 +2220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2341,6 +2374,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -2465,7 +2504,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2935,10 +2974,22 @@
     <xf borderId="11" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -68931,13 +68982,27 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.88"/>
+    <col customWidth="1" min="2" max="2" width="57.0"/>
+    <col customWidth="1" min="5" max="5" width="19.5"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="157" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="157" t="s">
         <v>659</v>
+      </c>
+      <c r="C1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="159" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="2">
@@ -68947,29 +69012,149 @@
       <c r="B2" s="7" t="s">
         <v>660</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
         <v>362</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>662</v>
+        <v>364</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>663</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="160" t="s">
         <v>665</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="161" t="s">
+        <v>675</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
